--- a/data/InvoicePacking_Template.xlsx
+++ b/data/InvoicePacking_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81904\Downloads\kristina\kristina_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A208C2CD-7D71-464E-92D7-1E141CAE41DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FC559-D611-4700-B55E-E75AB291A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE(無償サンプル抜き価格)" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Invoice-4 (TESTER)'!$A$13:$AI$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Invoice-5 (TESTER) '!$A$13:$AK$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PL1'!$A$11:$W$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PL2'!$A$11:$W$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PL2'!$A$11:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PL3'!$A$11:$U$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'INVOICE(無償サンプル抜き価格)'!$A$1:$J$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Invoice-2'!$A$1:$N$14</definedName>
@@ -41,7 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Invoice-4 (TESTER)'!$A$1:$M$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Invoice-5 (TESTER) '!$A$1:$M$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'PL1'!$A$1:$O$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'PL2'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'PL2'!$A$1:$O$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'PL3'!$A$1:$O$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="190">
   <si>
     <t>INVOICE</t>
     <phoneticPr fontId="6"/>
@@ -339,10 +339,6 @@
   </si>
   <si>
     <t>Цена TTL</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Total</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1659,10 +1655,6 @@
       <t>КАРТОЧКА НА МОДЕРАЦИИ  срок 30.03.2025-29.03.2028</t>
     </r>
   </si>
-  <si>
-    <t>Case</t>
-    <phoneticPr fontId="5"/>
-  </si>
 </sst>
 </file>
 
@@ -2527,7 +2519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="140">
+  <borders count="137">
     <border>
       <left/>
       <right/>
@@ -4187,51 +4179,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -9076,7 +9023,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="110" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="111" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9355,58 +9302,28 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="127" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="128" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="72" fillId="0" borderId="128" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="68" fillId="0" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="68" fillId="0" borderId="128" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="68" fillId="0" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="128" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="129" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="189" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="51" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="188" fontId="51" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="51" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="51" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="51" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="51" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="51" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="203" fontId="51" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="204" fontId="54" fillId="24" borderId="0" xfId="122" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9535,9 +9452,9 @@
     <xf numFmtId="201" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="198" fontId="58" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="130" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="131" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="131" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="127" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="80" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="191" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="198" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
@@ -9585,13 +9502,13 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="54" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="58" applyFont="1"/>
@@ -9605,11 +9522,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="67" fillId="0" borderId="99" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="131" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="66" fillId="0" borderId="131" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="66" fillId="0" borderId="132" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="66" fillId="0" borderId="128" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="66" fillId="0" borderId="129" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="197" fontId="51" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="51" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9642,34 +9559,34 @@
     <xf numFmtId="179" fontId="79" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="131" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="131" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="67" fillId="0" borderId="131" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="67" fillId="0" borderId="128" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="132" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="129" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="137" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="134" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="138" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="135" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="130" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="127" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9687,16 +9604,16 @@
     <xf numFmtId="179" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="131" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="131" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="131" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="128" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="132" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="129" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="79" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9717,7 +9634,7 @@
     <xf numFmtId="179" fontId="67" fillId="0" borderId="86" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="139" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="136" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
@@ -9750,7 +9667,7 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
@@ -9762,7 +9679,7 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="194" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9771,7 +9688,7 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
@@ -9792,9 +9709,6 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9849,6 +9763,39 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="54" fillId="0" borderId="24" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="51" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="24" borderId="24" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="0" borderId="97" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="0" borderId="95" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="0" borderId="24" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9885,39 +9832,6 @@
     <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="24" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="51" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="24" borderId="24" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="24" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="97" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="95" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9930,7 +9844,7 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="91" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="133" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="130" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="72" fillId="0" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9945,7 +9859,7 @@
     <xf numFmtId="177" fontId="72" fillId="0" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -16463,23 +16377,23 @@
   </sheetPr>
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="205"/>
-    <col min="4" max="5" width="0" style="205" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="205"/>
-    <col min="8" max="8" width="15.875" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.375" style="205"/>
-    <col min="11" max="11" width="14.25" style="205" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="205" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="205" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="205" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="205" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.375" style="205"/>
+    <col min="1" max="3" width="9.375" style="195"/>
+    <col min="4" max="5" width="0" style="195" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="195"/>
+    <col min="8" max="8" width="15.875" style="195" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.375" style="195"/>
+    <col min="11" max="11" width="14.25" style="195" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="195" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="195" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="195" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="195" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.375" style="195"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5">
@@ -16519,7 +16433,7 @@
       <c r="C4" s="309"/>
       <c r="D4" s="309"/>
       <c r="E4" s="9"/>
-      <c r="G4" s="205" t="s">
+      <c r="G4" s="195" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="310">
@@ -16527,7 +16441,7 @@
       </c>
       <c r="I4" s="310"/>
       <c r="J4" s="310"/>
-      <c r="K4" s="206"/>
+      <c r="K4" s="196"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
@@ -16539,33 +16453,33 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="205" t="s">
-        <v>79</v>
+      <c r="A6" s="195" t="s">
+        <v>78</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="205" t="s">
+      <c r="G6" s="195" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="311" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="312"/>
       <c r="J6" s="312"/>
-      <c r="K6" s="207"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="195" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="313" t="s">
@@ -16576,10 +16490,10 @@
       <c r="H8" s="314"/>
       <c r="I8" s="314"/>
       <c r="J8" s="314"/>
-      <c r="K8" s="209"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="G9" s="205" t="s">
+      <c r="G9" s="195" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16598,24 +16512,24 @@
       <c r="H11" s="315"/>
       <c r="I11" s="315"/>
       <c r="J11" s="315"/>
-      <c r="K11" s="210"/>
+      <c r="K11" s="200"/>
     </row>
     <row r="12" spans="1:11">
       <c r="G12" s="315"/>
       <c r="H12" s="315"/>
       <c r="I12" s="315"/>
       <c r="J12" s="315"/>
-      <c r="K12" s="210"/>
+      <c r="K12" s="200"/>
     </row>
     <row r="13" spans="1:11">
       <c r="G13" s="315"/>
       <c r="H13" s="315"/>
       <c r="I13" s="315"/>
       <c r="J13" s="315"/>
-      <c r="K13" s="210"/>
+      <c r="K13" s="200"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="G14" s="205" t="s">
+      <c r="G14" s="195" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="308" t="s">
@@ -16630,7 +16544,7 @@
       <c r="J15" s="308"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A17" s="204" t="s">
+      <c r="A17" s="194" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="306" t="s">
@@ -16659,16 +16573,16 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="316"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="202"/>
+      <c r="I18" s="301"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="192"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="12">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
@@ -16676,9 +16590,9 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="316"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="202">
+      <c r="I19" s="301"/>
+      <c r="J19" s="303"/>
+      <c r="K19" s="192">
         <f>SUM(I19:J22)</f>
         <v>0</v>
       </c>
@@ -16696,9 +16610,9 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="316"/>
-      <c r="J20" s="319"/>
-      <c r="K20" s="203"/>
+      <c r="I20" s="301"/>
+      <c r="J20" s="303"/>
+      <c r="K20" s="193"/>
       <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:16">
@@ -16714,8 +16628,8 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="91"/>
-      <c r="I21" s="318"/>
-      <c r="J21" s="318"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
       <c r="K21" s="29"/>
       <c r="L21" s="18"/>
       <c r="N21" s="18"/>
@@ -16733,11 +16647,11 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="318"/>
-      <c r="K22" s="199"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="189"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:16">
@@ -16745,17 +16659,17 @@
         <v>5</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="318"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="199">
+      <c r="G23" s="204"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="189">
         <f>SUM(I23:J36)</f>
         <v>0</v>
       </c>
@@ -16772,61 +16686,61 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="323"/>
-      <c r="J24" s="323"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="295"/>
+      <c r="J24" s="295"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="12">
         <v>7</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="323"/>
-      <c r="J25" s="323"/>
-      <c r="K25" s="199"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="295"/>
+      <c r="J25" s="295"/>
+      <c r="K25" s="189"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="12">
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="318"/>
-      <c r="J26" s="318"/>
-      <c r="K26" s="199"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="189"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="12">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="318"/>
-      <c r="J27" s="318"/>
-      <c r="K27" s="199"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="189"/>
       <c r="L27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -16836,17 +16750,17 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="318"/>
-      <c r="J28" s="318"/>
-      <c r="K28" s="199"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="294"/>
+      <c r="K28" s="189"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="12">
@@ -16859,11 +16773,11 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="318"/>
-      <c r="J29" s="318"/>
-      <c r="K29" s="199"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
+      <c r="K29" s="189"/>
       <c r="P29" s="30"/>
     </row>
     <row r="30" spans="1:16">
@@ -16877,11 +16791,11 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="318"/>
-      <c r="J30" s="318"/>
-      <c r="K30" s="199"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="189"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:16">
@@ -16889,16 +16803,16 @@
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="214"/>
-      <c r="I31" s="322"/>
-      <c r="J31" s="323"/>
-      <c r="K31" s="201"/>
+      <c r="G31" s="204"/>
+      <c r="I31" s="298"/>
+      <c r="J31" s="295"/>
+      <c r="K31" s="191"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:16">
@@ -16906,16 +16820,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="214"/>
-      <c r="I32" s="322"/>
-      <c r="J32" s="323"/>
-      <c r="K32" s="201"/>
+      <c r="G32" s="204"/>
+      <c r="I32" s="298"/>
+      <c r="J32" s="295"/>
+      <c r="K32" s="191"/>
       <c r="L32" s="18"/>
       <c r="N32" s="18"/>
     </row>
@@ -16924,16 +16838,16 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="214"/>
-      <c r="I33" s="322"/>
-      <c r="J33" s="323"/>
-      <c r="K33" s="201"/>
+      <c r="G33" s="204"/>
+      <c r="I33" s="298"/>
+      <c r="J33" s="295"/>
+      <c r="K33" s="191"/>
       <c r="L33" s="18"/>
       <c r="N33" s="18"/>
     </row>
@@ -16942,67 +16856,67 @@
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="214"/>
-      <c r="I34" s="322"/>
-      <c r="J34" s="323"/>
-      <c r="K34" s="201"/>
+      <c r="G34" s="204"/>
+      <c r="I34" s="298"/>
+      <c r="J34" s="295"/>
+      <c r="K34" s="191"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="12">
         <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="324"/>
-      <c r="J35" s="318"/>
-      <c r="K35" s="199"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="293"/>
+      <c r="J35" s="294"/>
+      <c r="K35" s="189"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="12">
         <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="324"/>
-      <c r="J36" s="318"/>
-      <c r="K36" s="199"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="293"/>
+      <c r="J36" s="294"/>
+      <c r="K36" s="189"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="12">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="324"/>
-      <c r="J37" s="318"/>
-      <c r="K37" s="199">
+      <c r="G37" s="204"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="293"/>
+      <c r="J37" s="294"/>
+      <c r="K37" s="189">
         <f>SUM(I37:J46)</f>
         <v>0</v>
       </c>
@@ -17012,17 +16926,17 @@
         <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="324"/>
-      <c r="J38" s="318"/>
-      <c r="K38" s="199"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="203"/>
+      <c r="I38" s="293"/>
+      <c r="J38" s="294"/>
+      <c r="K38" s="189"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="12">
@@ -17035,136 +16949,136 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="324"/>
-      <c r="J39" s="318"/>
-      <c r="K39" s="199"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="293"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="189"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="12">
         <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="324"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="199"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="203"/>
+      <c r="I40" s="293"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="189"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="12">
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="324"/>
-      <c r="J41" s="318"/>
-      <c r="K41" s="199"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="203"/>
+      <c r="I41" s="293"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="189"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="12">
         <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="324"/>
-      <c r="J42" s="318"/>
-      <c r="K42" s="199"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="203"/>
+      <c r="I42" s="293"/>
+      <c r="J42" s="294"/>
+      <c r="K42" s="189"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="12">
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="214"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="324"/>
-      <c r="J43" s="318"/>
-      <c r="K43" s="199"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="293"/>
+      <c r="J43" s="294"/>
+      <c r="K43" s="189"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="12">
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="324"/>
-      <c r="J44" s="318"/>
-      <c r="K44" s="199"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="203"/>
+      <c r="I44" s="293"/>
+      <c r="J44" s="294"/>
+      <c r="K44" s="189"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="12">
         <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="214"/>
-      <c r="H45" s="213"/>
-      <c r="I45" s="324"/>
-      <c r="J45" s="318"/>
-      <c r="K45" s="199"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="203"/>
+      <c r="I45" s="293"/>
+      <c r="J45" s="294"/>
+      <c r="K45" s="189"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" thickBot="1">
       <c r="A46" s="16">
         <v>28</v>
       </c>
-      <c r="B46" s="211" t="s">
-        <v>132</v>
+      <c r="B46" s="201" t="s">
+        <v>131</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="325"/>
-      <c r="J46" s="326"/>
-      <c r="K46" s="199"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="299"/>
+      <c r="J46" s="300"/>
+      <c r="K46" s="189"/>
       <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" thickTop="1">
       <c r="A47" s="12"/>
       <c r="B47" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -17172,13 +17086,13 @@
       <c r="F47" s="13"/>
       <c r="G47" s="12"/>
       <c r="H47" s="93"/>
-      <c r="I47" s="318"/>
-      <c r="J47" s="318"/>
-      <c r="K47" s="199"/>
+      <c r="I47" s="294"/>
+      <c r="J47" s="294"/>
+      <c r="K47" s="189"/>
       <c r="L47" s="18">
         <v>500000</v>
       </c>
-      <c r="M47" s="122">
+      <c r="M47" s="112">
         <f>L47/L48</f>
         <v>4.3131305149843327E-2</v>
       </c>
@@ -17192,27 +17106,27 @@
         <f>SUM(H19:H47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="320">
+      <c r="I48" s="296">
         <f>SUM(I19:J47)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="321"/>
-      <c r="K48" s="200" t="s">
-        <v>108</v>
+      <c r="J48" s="297"/>
+      <c r="K48" s="190" t="s">
+        <v>107</v>
       </c>
       <c r="L48" s="89">
         <v>11592508</v>
       </c>
       <c r="M48" s="18"/>
-      <c r="N48" s="123">
+      <c r="N48" s="113">
         <f>I48/2</f>
         <v>0</v>
       </c>
       <c r="O48" s="18"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="K49" s="200" t="s">
-        <v>115</v>
+      <c r="K49" s="190" t="s">
+        <v>114</v>
       </c>
       <c r="L49" s="18">
         <f>'Invoice-4 (TESTER)'!G14+'Invoice-5 (TESTER) '!G14</f>
@@ -17253,8 +17167,8 @@
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="123"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="113"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="23"/>
@@ -17297,15 +17211,24 @@
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
   <mergeCells count="43">
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J13"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I29:J29"/>
@@ -17322,24 +17245,15 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J13"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17360,22 +17274,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <f>'Invoice-1 '!I14</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="e">
         <f>SUM('Invoice-1 '!#REF!)</f>
@@ -17384,7 +17298,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="e">
         <f>SUM('Invoice-4 (TESTER)'!#REF!)</f>
@@ -17415,14 +17329,14 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <f>'Invoice-2'!I14</f>
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="e">
         <f>SUM('Invoice-1 '!#REF!)</f>
@@ -17430,8 +17344,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="337" t="s">
-        <v>85</v>
+      <c r="A7" s="326" t="s">
+        <v>84</v>
       </c>
       <c r="B7" t="e">
         <f>SUM('Invoice-4 (TESTER)'!#REF!)</f>
@@ -17439,13 +17353,13 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="337"/>
+      <c r="A8" s="326"/>
       <c r="B8" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" t="e">
         <f>SUM('Invoice-1 '!#REF!)</f>
@@ -17458,7 +17372,7 @@
         <v>#REF!</v>
       </c>
       <c r="C9">
-        <f>'PL2'!M14</f>
+        <f>'PL2'!M13</f>
         <v>0</v>
       </c>
       <c r="D9" t="e">
@@ -17485,7 +17399,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <f>'Invoice-3'!I14</f>
@@ -17494,7 +17408,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="e">
         <f>SUM(#REF!)</f>
@@ -17588,119 +17502,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="164.25" customHeight="1">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="285" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="284" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="215" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="284" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="215" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="284" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="215" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="284" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="215" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="284" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="215" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="284" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="215" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="284" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="215" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="295" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="225" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="295" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="225" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="295" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="225" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="295" t="s">
+      <c r="P1" s="284" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="215" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" s="284" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="215" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="284" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="215" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="225" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="295" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="225" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="295" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" s="295" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="295" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="R1" s="295" t="s">
-        <v>179</v>
-      </c>
-      <c r="S1" s="225" t="s">
-        <v>177</v>
-      </c>
-      <c r="T1" s="295" t="s">
+      <c r="W1" s="292" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="287" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="263" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA1" s="288" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB1" s="288" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC1" s="287" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="289" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="225" t="s">
+      <c r="AE1" s="287" t="s">
         <v>166</v>
       </c>
-      <c r="V1" s="297" t="s">
-        <v>188</v>
-      </c>
-      <c r="W1" s="303" t="s">
-        <v>190</v>
-      </c>
-      <c r="X1" s="298" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y1" s="273" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z1" s="273" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA1" s="299" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB1" s="299" t="s">
+      <c r="AF1" s="287" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="287" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" s="287" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI1" s="287" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ1" s="290" t="s">
         <v>153</v>
       </c>
-      <c r="AC1" s="298" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD1" s="300" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE1" s="298" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF1" s="298" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG1" s="298" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH1" s="298" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI1" s="298" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ1" s="301" t="s">
+      <c r="AK1" s="291" t="s">
         <v>154</v>
       </c>
-      <c r="AK1" s="302" t="s">
+      <c r="AL1" s="287" t="s">
         <v>155</v>
-      </c>
-      <c r="AL1" s="298" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -17718,302 +17632,302 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="147" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="147" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="147" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="147" customWidth="1"/>
-    <col min="5" max="5" width="14" style="147" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="150" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="150" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="150" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="150" customWidth="1"/>
-    <col min="10" max="10" width="16" style="150" customWidth="1"/>
-    <col min="11" max="11" width="37" style="272" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="243" customWidth="1"/>
-    <col min="13" max="13" width="28.375" style="243" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="243" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.75" style="291" customWidth="1"/>
-    <col min="16" max="16" width="15.375" style="147" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="147" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="147" customWidth="1"/>
-    <col min="19" max="23" width="16.375" style="147" customWidth="1"/>
-    <col min="24" max="29" width="2.375" style="147" customWidth="1"/>
-    <col min="30" max="30" width="9" style="147"/>
-    <col min="31" max="31" width="19.375" style="147" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="147"/>
+    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="137" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="137" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="137" customWidth="1"/>
+    <col min="5" max="5" width="14" style="137" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="140" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="140" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="140" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="140" customWidth="1"/>
+    <col min="10" max="10" width="16" style="140" customWidth="1"/>
+    <col min="11" max="11" width="37" style="262" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="233" customWidth="1"/>
+    <col min="13" max="13" width="28.375" style="233" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="233" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="280" customWidth="1"/>
+    <col min="16" max="16" width="15.375" style="137" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="137" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="137" customWidth="1"/>
+    <col min="19" max="23" width="16.375" style="137" customWidth="1"/>
+    <col min="24" max="29" width="2.375" style="137" customWidth="1"/>
+    <col min="30" max="30" width="9" style="137"/>
+    <col min="31" max="31" width="19.375" style="137" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A2" s="327"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="A2" s="316"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A3" s="215" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="149" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="151" cm="1">
+      <c r="A3" s="205" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="141" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="151">
+      <c r="H3" s="141">
         <v>0</v>
       </c>
-      <c r="I3" s="151">
+      <c r="I3" s="141">
         <v>0</v>
       </c>
-      <c r="J3" s="151"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="139"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="273"/>
+      <c r="G6" s="151"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="263"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="162" t="s">
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
+      <c r="K8" s="263"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="137"/>
+      <c r="K9" s="263"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="158"/>
+      <c r="D10" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="137"/>
+      <c r="K10" s="263"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5">
+      <c r="A11" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="K8" s="273"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="147"/>
-      <c r="K9" s="273"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="147"/>
-      <c r="K10" s="273"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5">
-      <c r="A11" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="147" t="s">
+      <c r="G11" s="151"/>
+      <c r="K11" s="263"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A12" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="161"/>
-      <c r="K11" s="273"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A12" s="157" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="174"/>
-      <c r="K12" s="273"/>
+      <c r="D12" s="148"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="164"/>
+      <c r="K12" s="263"/>
     </row>
     <row r="13" spans="1:18" ht="26.25" thickBot="1">
-      <c r="A13" s="190"/>
-      <c r="B13" s="236" t="s">
+      <c r="A13" s="180"/>
+      <c r="B13" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="D13" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="237" t="s">
+      <c r="E13" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="238" t="s">
+      <c r="F13" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="239" t="s">
+      <c r="G13" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="241" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="242" t="s">
+      <c r="I13" s="231" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="271" t="s">
+      <c r="K13" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="235" t="s">
+      <c r="L13" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="235" t="s">
+      <c r="M13" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="290" t="s">
-        <v>152</v>
-      </c>
-      <c r="O13" s="290"/>
+      <c r="N13" s="279" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="279"/>
     </row>
     <row r="14" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A14" s="175"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="176" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="232">
+      <c r="A14" s="165"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="166" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="222">
         <v>0</v>
       </c>
-      <c r="F14" s="233">
+      <c r="F14" s="223">
         <v>0</v>
       </c>
-      <c r="G14" s="234">
+      <c r="G14" s="224">
         <v>0</v>
       </c>
-      <c r="H14" s="229">
+      <c r="H14" s="219">
         <v>0</v>
       </c>
-      <c r="I14" s="230">
+      <c r="I14" s="220">
         <v>0</v>
       </c>
-      <c r="J14" s="231"/>
-      <c r="R14" s="147" t="e">
+      <c r="J14" s="221"/>
+      <c r="R14" s="137" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="I16" s="187"/>
+      <c r="I16" s="177"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="184" t="e">
+      <c r="I17" s="174" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="9:9">
-      <c r="I18" s="184" t="e">
+      <c r="I18" s="174" t="e">
         <f>I14-I17</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="9:9">
-      <c r="I19" s="184" t="e">
+      <c r="I19" s="174" t="e">
         <f>I18+'Invoice-4 (TESTER)'!I14</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="9:9">
-      <c r="I21" s="187"/>
+      <c r="I21" s="177"/>
     </row>
     <row r="22" spans="9:9">
-      <c r="I22" s="185"/>
+      <c r="I22" s="175"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:M14" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -18042,322 +17956,322 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="147" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
     <col min="2" max="2" width="53.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="147" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="147" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="147" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="150" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="150" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="150" customWidth="1"/>
-    <col min="9" max="9" width="15" style="150" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="150" customWidth="1"/>
-    <col min="11" max="11" width="34" style="274" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="243" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="243" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="243" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="291" customWidth="1"/>
-    <col min="16" max="16" width="9" style="147" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="147" customWidth="1"/>
-    <col min="18" max="18" width="11" style="147" customWidth="1"/>
-    <col min="19" max="21" width="2.375" style="147" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="147" customWidth="1"/>
-    <col min="23" max="23" width="19.875" style="147" customWidth="1"/>
-    <col min="24" max="28" width="16.375" style="147" customWidth="1"/>
-    <col min="29" max="34" width="2.375" style="147" customWidth="1"/>
-    <col min="35" max="35" width="9" style="147"/>
-    <col min="36" max="36" width="19.375" style="147" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="147"/>
+    <col min="3" max="3" width="21.875" style="137" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="137" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="137" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="140" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="140" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="140" customWidth="1"/>
+    <col min="9" max="9" width="15" style="140" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="140" customWidth="1"/>
+    <col min="11" max="11" width="34" style="264" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="233" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="233" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="233" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.25" style="280" customWidth="1"/>
+    <col min="16" max="16" width="9" style="137" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="137" customWidth="1"/>
+    <col min="18" max="18" width="11" style="137" customWidth="1"/>
+    <col min="19" max="21" width="2.375" style="137" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="137" customWidth="1"/>
+    <col min="23" max="23" width="19.875" style="137" customWidth="1"/>
+    <col min="24" max="28" width="16.375" style="137" customWidth="1"/>
+    <col min="29" max="34" width="2.375" style="137" customWidth="1"/>
+    <col min="35" max="35" width="9" style="137"/>
+    <col min="36" max="36" width="19.375" style="137" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="316" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A2" s="327"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="A2" s="316"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A3" s="215" t="s">
-        <v>147</v>
+      <c r="A3" s="205" t="s">
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="147">
+      <c r="C3" s="137">
         <v>0</v>
       </c>
-      <c r="D3" s="147">
+      <c r="D3" s="137">
         <v>0</v>
       </c>
-      <c r="G3" s="151" cm="1">
+      <c r="G3" s="141" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="151">
+      <c r="H3" s="141">
         <v>0</v>
       </c>
-      <c r="I3" s="151">
+      <c r="I3" s="141">
         <v>0</v>
       </c>
-      <c r="J3" s="151"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="142" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="139"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="151"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="216"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="162" t="s">
-        <v>112</v>
-      </c>
       <c r="B8" s="78"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="K8" s="226"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
+      <c r="K8" s="216"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="161" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="158" t="s">
+      <c r="C9" s="162"/>
+      <c r="D9" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="147"/>
-      <c r="K9" s="226"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="137"/>
+      <c r="K9" s="216"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="173" t="s">
-        <v>74</v>
+      <c r="A10" s="163" t="s">
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="167" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="147"/>
-      <c r="K10" s="226"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="137"/>
+      <c r="K10" s="216"/>
     </row>
     <row r="11" spans="1:16" ht="19.5">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="161" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="147" t="s">
+      <c r="C11" s="162"/>
+      <c r="D11" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="151"/>
+      <c r="K11" s="216"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A12" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="161"/>
-      <c r="K11" s="226"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="157" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="174"/>
-      <c r="K12" s="226"/>
+      <c r="D12" s="148"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="164"/>
+      <c r="K12" s="216"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A13" s="242"/>
-      <c r="B13" s="250" t="s">
+      <c r="A13" s="232"/>
+      <c r="B13" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="D13" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="237" t="s">
+      <c r="E13" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="238" t="s">
+      <c r="F13" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="239" t="s">
+      <c r="G13" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="241" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="237" t="s">
+      <c r="I13" s="231" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="275" t="s">
+      <c r="K13" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="244" t="s">
+      <c r="L13" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="245" t="s">
+      <c r="M13" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="290" t="s">
-        <v>150</v>
-      </c>
-      <c r="O13" s="290"/>
-      <c r="P13" s="196"/>
+      <c r="N13" s="279" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="279"/>
+      <c r="P13" s="186"/>
     </row>
     <row r="14" spans="1:16" ht="23.25" thickBot="1">
-      <c r="A14" s="197"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="176" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="232">
+      <c r="A14" s="187"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="166" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="222">
         <v>0</v>
       </c>
-      <c r="F14" s="233">
+      <c r="F14" s="223">
         <v>0</v>
       </c>
-      <c r="G14" s="234">
+      <c r="G14" s="224">
         <v>0</v>
       </c>
-      <c r="H14" s="229">
+      <c r="H14" s="219">
         <v>0</v>
       </c>
-      <c r="I14" s="246">
+      <c r="I14" s="236">
         <v>0</v>
       </c>
-      <c r="J14" s="231"/>
+      <c r="J14" s="221"/>
     </row>
     <row r="15" spans="1:16" ht="27" customHeight="1">
-      <c r="D15" s="180"/>
-      <c r="E15" s="247">
+      <c r="D15" s="170"/>
+      <c r="E15" s="237">
         <f>E14+'Invoice-1 '!E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248">
+      <c r="F15" s="238"/>
+      <c r="G15" s="238">
         <f>G14+'Invoice-1 '!G14</f>
         <v>0</v>
       </c>
-      <c r="H15" s="249"/>
-      <c r="I15" s="231">
+      <c r="H15" s="239"/>
+      <c r="I15" s="221">
         <f>I14+'Invoice-1 '!I14</f>
         <v>0</v>
       </c>
-      <c r="J15" s="249"/>
+      <c r="J15" s="239"/>
     </row>
     <row r="16" spans="1:16" ht="18.75">
-      <c r="E16" s="182"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
     </row>
     <row r="17" spans="8:10">
-      <c r="J17" s="198"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="8:10">
-      <c r="H18" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="184" t="e">
+      <c r="H18" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="174" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="198"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="8:10">
-      <c r="I19" s="184"/>
+      <c r="I19" s="174"/>
     </row>
     <row r="20" spans="8:10">
-      <c r="I20" s="187"/>
+      <c r="I20" s="177"/>
     </row>
     <row r="21" spans="8:10">
-      <c r="I21" s="185"/>
+      <c r="I21" s="175"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:AJ15" xr:uid="{D9372347-FF81-D647-A62F-B2DA76FB2ABB}"/>
@@ -18387,369 +18301,369 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="147" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="147" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="147" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="147" customWidth="1"/>
-    <col min="5" max="5" width="14" style="147" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="150" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="150" customWidth="1"/>
-    <col min="8" max="9" width="16.375" style="150" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="150" customWidth="1"/>
-    <col min="11" max="11" width="36" style="269" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="243" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="243" customWidth="1"/>
-    <col min="14" max="14" width="16" style="243" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="291" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="147" customWidth="1"/>
-    <col min="17" max="17" width="8.25" style="147" customWidth="1"/>
-    <col min="18" max="19" width="2.375" style="147" customWidth="1"/>
-    <col min="20" max="20" width="26.125" style="147" customWidth="1"/>
-    <col min="21" max="21" width="24" style="147" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="147" customWidth="1"/>
-    <col min="23" max="23" width="19.875" style="147" customWidth="1"/>
-    <col min="24" max="24" width="19.375" style="147" customWidth="1"/>
-    <col min="25" max="28" width="16.375" style="147" customWidth="1"/>
-    <col min="29" max="34" width="2.375" style="147" customWidth="1"/>
-    <col min="35" max="35" width="9" style="147"/>
-    <col min="36" max="36" width="19.375" style="147" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="147"/>
+    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="137" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="137" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="137" customWidth="1"/>
+    <col min="5" max="5" width="14" style="137" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="140" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="140" customWidth="1"/>
+    <col min="8" max="9" width="16.375" style="140" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="140" customWidth="1"/>
+    <col min="11" max="11" width="36" style="259" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="233" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="233" customWidth="1"/>
+    <col min="14" max="14" width="16" style="233" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="280" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="137" customWidth="1"/>
+    <col min="17" max="17" width="8.25" style="137" customWidth="1"/>
+    <col min="18" max="19" width="2.375" style="137" customWidth="1"/>
+    <col min="20" max="20" width="26.125" style="137" customWidth="1"/>
+    <col min="21" max="21" width="24" style="137" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="137" customWidth="1"/>
+    <col min="23" max="23" width="19.875" style="137" customWidth="1"/>
+    <col min="24" max="24" width="19.375" style="137" customWidth="1"/>
+    <col min="25" max="28" width="16.375" style="137" customWidth="1"/>
+    <col min="29" max="34" width="2.375" style="137" customWidth="1"/>
+    <col min="35" max="35" width="9" style="137"/>
+    <col min="36" max="36" width="19.375" style="137" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="316" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A2" s="327"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="A2" s="316"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A3" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="149" t="str" cm="1">
+      <c r="A3" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="139" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="147">
+      <c r="C3" s="137">
         <v>0</v>
       </c>
-      <c r="D3" s="147">
+      <c r="D3" s="137">
         <v>0</v>
       </c>
-      <c r="G3" s="151" cm="1">
+      <c r="G3" s="141" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="151">
+      <c r="H3" s="141">
         <v>0</v>
       </c>
-      <c r="I3" s="151">
+      <c r="I3" s="141">
         <v>0</v>
       </c>
-      <c r="J3" s="151"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="139"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="270"/>
+      <c r="G6" s="151"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="260"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="162" t="s">
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
+      <c r="K8" s="260"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="137"/>
+      <c r="K9" s="260"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="158"/>
+      <c r="D10" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="137"/>
+      <c r="K10" s="260"/>
+    </row>
+    <row r="11" spans="1:24" ht="19.5">
+      <c r="A11" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="K8" s="270"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="147"/>
-      <c r="K9" s="270"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="147"/>
-      <c r="K10" s="270"/>
-    </row>
-    <row r="11" spans="1:24" ht="19.5">
-      <c r="A11" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="147" t="s">
+      <c r="G11" s="151"/>
+      <c r="K11" s="260"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A12" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="161"/>
-      <c r="K11" s="270"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A12" s="157" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="174"/>
-      <c r="K12" s="270"/>
+      <c r="D12" s="148"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="164"/>
+      <c r="K12" s="260"/>
     </row>
     <row r="13" spans="1:24" ht="26.25" thickBot="1">
-      <c r="A13" s="242"/>
-      <c r="B13" s="236" t="s">
+      <c r="A13" s="232"/>
+      <c r="B13" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="D13" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="237" t="s">
+      <c r="E13" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="238" t="s">
+      <c r="F13" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="239" t="s">
+      <c r="G13" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="241" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="237" t="s">
+      <c r="I13" s="231" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="235" t="s">
+      <c r="K13" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="244" t="s">
+      <c r="L13" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="245" t="s">
+      <c r="M13" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="290" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="290"/>
-      <c r="P13" s="147" t="e">
+      <c r="N13" s="279" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="279"/>
+      <c r="P13" s="137" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q13" s="188" t="e">
+      <c r="Q13" s="178" t="e">
         <f>P13+'INVOICE(無償サンプル抜き価格)'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="T13" s="223" t="e">
+      <c r="T13" s="213" t="e">
         <f>ROUND(#REF!*1.0432,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="W13" s="150"/>
+      <c r="W13" s="140"/>
     </row>
     <row r="14" spans="1:24" ht="23.25" thickBot="1">
-      <c r="A14" s="175"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="176" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="232">
+      <c r="A14" s="165"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="222">
         <v>0</v>
       </c>
-      <c r="F14" s="254">
+      <c r="F14" s="244">
         <v>0</v>
       </c>
-      <c r="G14" s="255">
+      <c r="G14" s="245">
         <v>0</v>
       </c>
-      <c r="H14" s="246">
+      <c r="H14" s="236">
         <v>0</v>
       </c>
-      <c r="I14" s="246">
+      <c r="I14" s="236">
         <v>0</v>
       </c>
-      <c r="J14" s="231"/>
-      <c r="X14" s="189"/>
+      <c r="J14" s="221"/>
+      <c r="X14" s="179"/>
     </row>
     <row r="15" spans="1:24" ht="27" customHeight="1" thickBot="1">
-      <c r="A15" s="190"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="251">
+      <c r="A15" s="180"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="241">
         <f>E14+'Invoice-2'!E15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="252"/>
-      <c r="G15" s="253">
+      <c r="F15" s="242"/>
+      <c r="G15" s="243">
         <f>'Invoice-1 '!G14+'Invoice-2'!G14+'Invoice-3'!G14</f>
         <v>0</v>
       </c>
-      <c r="H15" s="249"/>
-      <c r="I15" s="231">
+      <c r="H15" s="239"/>
+      <c r="I15" s="221">
         <f>I14+'Invoice-2'!I15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="249"/>
+      <c r="J15" s="239"/>
     </row>
     <row r="16" spans="1:24" ht="18.75">
-      <c r="E16" s="182"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
     </row>
     <row r="17" spans="7:12" ht="23.25">
-      <c r="G17" s="193"/>
-      <c r="I17" s="194"/>
-      <c r="L17" s="276"/>
+      <c r="G17" s="183"/>
+      <c r="I17" s="184"/>
+      <c r="L17" s="266"/>
     </row>
     <row r="18" spans="7:12">
-      <c r="H18" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="194" t="e">
+      <c r="H18" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="184" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L18" s="276" t="e">
+      <c r="L18" s="266" t="e">
         <f>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="7:12">
-      <c r="H19" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="194" t="e">
+      <c r="H19" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="184" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!I20</f>
         <v>#REF!</v>
       </c>
-      <c r="L19" s="276" t="e">
+      <c r="L19" s="266" t="e">
         <f>SUM(#REF!)+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="7:12">
-      <c r="H20" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="194" t="e">
+      <c r="H20" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="184" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!I21</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="7:12">
-      <c r="I21" s="195" t="e">
+      <c r="I21" s="185" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="7:12">
-      <c r="H22" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="187" t="e">
+      <c r="H22" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="177" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!I22</f>
         <v>#REF!</v>
       </c>
@@ -18782,353 +18696,353 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="147" customWidth="1"/>
-    <col min="2" max="2" width="49.75" style="147" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="147" customWidth="1"/>
-    <col min="4" max="4" width="39" style="147" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="147" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="150" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="150" customWidth="1"/>
-    <col min="8" max="10" width="16.375" style="150" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="274" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="243" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="277" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="147" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="289" customWidth="1"/>
-    <col min="16" max="19" width="2.375" style="147" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="147" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="147" customWidth="1"/>
-    <col min="22" max="22" width="19.375" style="147" customWidth="1"/>
-    <col min="23" max="27" width="16.375" style="147" customWidth="1"/>
-    <col min="28" max="33" width="2.375" style="147" customWidth="1"/>
-    <col min="34" max="34" width="9" style="147"/>
-    <col min="35" max="35" width="19.375" style="147" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="147"/>
+    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
+    <col min="2" max="2" width="49.75" style="137" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="137" customWidth="1"/>
+    <col min="4" max="4" width="39" style="137" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="137" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="140" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="140" customWidth="1"/>
+    <col min="8" max="10" width="16.375" style="140" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="264" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="233" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="267" customWidth="1"/>
+    <col min="14" max="14" width="22.25" style="137" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="278" customWidth="1"/>
+    <col min="16" max="19" width="2.375" style="137" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="137" customWidth="1"/>
+    <col min="21" max="21" width="19.875" style="137" customWidth="1"/>
+    <col min="22" max="22" width="19.375" style="137" customWidth="1"/>
+    <col min="23" max="27" width="16.375" style="137" customWidth="1"/>
+    <col min="28" max="33" width="2.375" style="137" customWidth="1"/>
+    <col min="34" max="34" width="9" style="137"/>
+    <col min="35" max="35" width="19.375" style="137" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="316" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A2" s="327"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="A2" s="316"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A3" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="149" t="str" cm="1">
+      <c r="A3" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="139" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="147">
+      <c r="C3" s="137">
         <v>0</v>
       </c>
-      <c r="D3" s="147">
+      <c r="D3" s="137">
         <v>0</v>
       </c>
-      <c r="G3" s="151" cm="1">
+      <c r="G3" s="141" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="151">
+      <c r="H3" s="141">
         <v>0</v>
       </c>
-      <c r="I3" s="151">
+      <c r="I3" s="141">
         <v>0</v>
       </c>
-      <c r="J3" s="151"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="139"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="151"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="216"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="162" t="s">
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
+      <c r="K8" s="216"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="137"/>
+      <c r="K9" s="216"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="158"/>
+      <c r="D10" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="137"/>
+      <c r="K10" s="216"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5">
+      <c r="A11" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="K8" s="226"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="147"/>
-      <c r="K9" s="226"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="147"/>
-      <c r="K10" s="226"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.5">
-      <c r="A11" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="147" t="s">
+      <c r="G11" s="151"/>
+      <c r="K11" s="216"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A12" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="161"/>
-      <c r="K11" s="226"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A12" s="157" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="174"/>
-      <c r="K12" s="226"/>
+      <c r="D12" s="148"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="164"/>
+      <c r="K12" s="216"/>
     </row>
     <row r="13" spans="1:14" ht="26.25" thickBot="1">
-      <c r="A13" s="242"/>
-      <c r="B13" s="236" t="s">
+      <c r="A13" s="232"/>
+      <c r="B13" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="D13" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="237" t="s">
+      <c r="E13" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="238" t="s">
+      <c r="F13" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="239" t="s">
+      <c r="G13" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="260" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="237" t="s">
+      <c r="I13" s="250" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="275" t="s">
+      <c r="K13" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="235" t="s">
+      <c r="L13" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="278" t="s">
+      <c r="M13" s="268" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="293" t="s">
-        <v>150</v>
+      <c r="N13" s="282" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A14" s="175"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="176" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="227">
+      <c r="A14" s="165"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="217">
         <v>0</v>
       </c>
       <c r="F14" s="27">
         <v>0</v>
       </c>
-      <c r="G14" s="228">
+      <c r="G14" s="218">
         <v>0</v>
       </c>
-      <c r="H14" s="229">
+      <c r="H14" s="219">
         <v>0</v>
       </c>
-      <c r="I14" s="246">
+      <c r="I14" s="236">
         <v>0</v>
       </c>
-      <c r="J14" s="231"/>
+      <c r="J14" s="221"/>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1">
-      <c r="D15" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="257">
+      <c r="D15" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="247">
         <f>'Invoice-3'!E15+'Invoice-4 (TESTER)'!E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258">
+      <c r="F15" s="248"/>
+      <c r="G15" s="248">
         <f>'Invoice-3'!G15+'Invoice-4 (TESTER)'!G14</f>
         <v>0</v>
       </c>
-      <c r="H15" s="259"/>
-      <c r="I15" s="256">
+      <c r="H15" s="249"/>
+      <c r="I15" s="246">
         <f>'Invoice-3'!I15+'Invoice-4 (TESTER)'!I14</f>
         <v>0</v>
       </c>
-      <c r="J15" s="249"/>
+      <c r="J15" s="239"/>
     </row>
     <row r="16" spans="1:14" ht="18.75">
-      <c r="E16" s="182"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="147">
+      <c r="E17" s="137">
         <v>19721</v>
       </c>
-      <c r="G17" s="150" t="e">
+      <c r="G17" s="140" t="e">
         <f>G14-#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="184" t="e">
+      <c r="I17" s="174" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="147">
+      <c r="E18" s="137">
         <f>E17-E15</f>
         <v>19721</v>
       </c>
-      <c r="G18" s="150" t="e">
+      <c r="G18" s="140" t="e">
         <f>G17+'Invoice-1 '!G14</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="185" t="e">
+      <c r="I18" s="175" t="e">
         <f>'Invoice-1 '!I14+'Invoice-4 (TESTER)'!I17</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="H20" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="186" t="e">
+      <c r="H20" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="176" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="H21" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="185" t="e">
+      <c r="H21" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="175" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="H22" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="187" t="e">
+      <c r="H22" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="177" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="I23" s="187" t="e">
+      <c r="I23" s="177" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -19161,258 +19075,258 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="147" customWidth="1"/>
-    <col min="2" max="2" width="49.75" style="147" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="147" customWidth="1"/>
-    <col min="4" max="4" width="39" style="147" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="147" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="150" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="150" customWidth="1"/>
-    <col min="8" max="10" width="16.375" style="150" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="269" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="279" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="279" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="279" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="294" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="147" customWidth="1"/>
-    <col min="17" max="21" width="2.375" style="147" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="147" customWidth="1"/>
-    <col min="23" max="23" width="19.875" style="147" customWidth="1"/>
-    <col min="24" max="24" width="19.375" style="147" customWidth="1"/>
-    <col min="25" max="29" width="16.375" style="147" customWidth="1"/>
-    <col min="30" max="35" width="2.375" style="147" customWidth="1"/>
-    <col min="36" max="36" width="9" style="147"/>
-    <col min="37" max="37" width="19.375" style="147" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="147"/>
+    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
+    <col min="2" max="2" width="49.75" style="137" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="137" customWidth="1"/>
+    <col min="4" max="4" width="39" style="137" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="137" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="140" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="140" customWidth="1"/>
+    <col min="8" max="10" width="16.375" style="140" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="259" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="269" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="269" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="269" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="283" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="137" customWidth="1"/>
+    <col min="17" max="21" width="2.375" style="137" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="137" customWidth="1"/>
+    <col min="23" max="23" width="19.875" style="137" customWidth="1"/>
+    <col min="24" max="24" width="19.375" style="137" customWidth="1"/>
+    <col min="25" max="29" width="16.375" style="137" customWidth="1"/>
+    <col min="30" max="35" width="2.375" style="137" customWidth="1"/>
+    <col min="36" max="36" width="9" style="137"/>
+    <col min="37" max="37" width="19.375" style="137" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="316" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A2" s="327"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="A2" s="316"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A3" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="149" t="str" cm="1">
+      <c r="A3" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="139" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="147">
+      <c r="C3" s="137">
         <v>0</v>
       </c>
-      <c r="D3" s="147">
+      <c r="D3" s="137">
         <v>0</v>
       </c>
-      <c r="G3" s="151" cm="1">
+      <c r="G3" s="141" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="151">
+      <c r="H3" s="141">
         <v>0</v>
       </c>
-      <c r="I3" s="151">
+      <c r="I3" s="141">
         <v>0</v>
       </c>
-      <c r="J3" s="151"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="139"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="270"/>
+      <c r="G6" s="151"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="260"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="162" t="s">
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
+      <c r="K8" s="260"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="137"/>
+      <c r="K9" s="260"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="158"/>
+      <c r="D10" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="137"/>
+      <c r="K10" s="260"/>
+    </row>
+    <row r="11" spans="1:15" ht="19.5">
+      <c r="A11" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="K8" s="270"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="147"/>
-      <c r="K9" s="270"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="147"/>
-      <c r="K10" s="270"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5">
-      <c r="A11" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="147" t="s">
+      <c r="G11" s="151"/>
+      <c r="K11" s="260"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A12" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="161"/>
-      <c r="K11" s="270"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A12" s="157" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="174"/>
-      <c r="K12" s="270"/>
+      <c r="D12" s="148"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="164"/>
+      <c r="K12" s="260"/>
     </row>
     <row r="13" spans="1:15" ht="21.75" thickBot="1">
-      <c r="A13" s="242"/>
-      <c r="B13" s="236" t="s">
+      <c r="A13" s="232"/>
+      <c r="B13" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="D13" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="237" t="s">
+      <c r="E13" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="238" t="s">
+      <c r="F13" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="239" t="s">
+      <c r="G13" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="241" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="237" t="s">
+      <c r="I13" s="231" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="235" t="s">
+      <c r="K13" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="278" t="s">
+      <c r="L13" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="278" t="s">
+      <c r="M13" s="268" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="292" t="s">
-        <v>152</v>
-      </c>
-      <c r="O13" s="292"/>
+      <c r="N13" s="281" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="281"/>
     </row>
     <row r="14" spans="1:15" ht="23.25" thickBot="1">
-      <c r="A14" s="175"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="176" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="177">
+      <c r="A14" s="165"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="167">
         <v>0</v>
       </c>
       <c r="F14" s="27">
@@ -19421,104 +19335,104 @@
       <c r="G14" s="28">
         <v>0</v>
       </c>
-      <c r="H14" s="178">
+      <c r="H14" s="168">
         <v>0</v>
       </c>
-      <c r="I14" s="179">
+      <c r="I14" s="169">
         <v>0</v>
       </c>
       <c r="J14" s="90"/>
     </row>
     <row r="15" spans="1:15" ht="33" customHeight="1" thickBot="1">
-      <c r="A15" s="190"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="192" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="220">
+      <c r="A15" s="180"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="210">
         <v>0</v>
       </c>
-      <c r="F15" s="221">
+      <c r="F15" s="211">
         <v>0</v>
       </c>
-      <c r="G15" s="222">
+      <c r="G15" s="212">
         <v>0</v>
       </c>
-      <c r="H15" s="219">
+      <c r="H15" s="209">
         <v>0</v>
       </c>
-      <c r="I15" s="181">
+      <c r="I15" s="171">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75">
-      <c r="E16" s="182"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="147">
+      <c r="E17" s="137">
         <v>19721</v>
       </c>
-      <c r="G17" s="150" t="e">
+      <c r="G17" s="140" t="e">
         <f>G14-#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="184" t="e">
+      <c r="I17" s="174" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="147">
+      <c r="E18" s="137">
         <f>E17-E15</f>
         <v>19721</v>
       </c>
-      <c r="G18" s="150" t="e">
+      <c r="G18" s="140" t="e">
         <f>G17+'Invoice-1 '!G14</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="185" t="e">
+      <c r="I18" s="175" t="e">
         <f>'Invoice-1 '!I14+'Invoice-5 (TESTER) '!I17</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="5:9">
-      <c r="G19" s="150">
+      <c r="G19" s="140">
         <f>G14+'Invoice-4 (TESTER)'!G14</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="H20" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="186" t="e">
+      <c r="H20" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="176" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="H21" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="185" t="e">
+      <c r="H21" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="175" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="H22" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="187" t="e">
+      <c r="H22" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="177" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="I23" s="187" t="e">
+      <c r="I23" s="177" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -19545,7 +19459,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="106" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -19556,7 +19470,7 @@
     <col min="4" max="4" width="10.125" style="33" customWidth="1"/>
     <col min="5" max="5" width="41.375" style="33" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="44.625" style="268" customWidth="1"/>
+    <col min="7" max="7" width="44.625" style="258" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="33" customWidth="1"/>
     <col min="9" max="9" width="9" style="33" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="33" customWidth="1"/>
@@ -19570,7 +19484,7 @@
     <col min="18" max="18" width="20" style="53" customWidth="1"/>
     <col min="19" max="19" width="30.75" style="53" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.75" style="282" customWidth="1"/>
+    <col min="21" max="21" width="18.75" style="272" customWidth="1"/>
     <col min="22" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
@@ -19583,7 +19497,7 @@
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
-      <c r="G1" s="261"/>
+      <c r="G1" s="251"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
@@ -19600,7 +19514,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="261"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
@@ -19617,7 +19531,7 @@
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
-      <c r="G3" s="261"/>
+      <c r="G3" s="251"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
@@ -19634,7 +19548,7 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="262"/>
+      <c r="G4" s="252"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
@@ -19656,11 +19570,11 @@
       <c r="D5" s="65"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="263"/>
+      <c r="G5" s="253"/>
       <c r="H5" s="38"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
-      <c r="K5" s="134"/>
+      <c r="K5" s="124"/>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
@@ -19673,7 +19587,7 @@
       <c r="D6" s="43"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="264"/>
+      <c r="G6" s="254"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
@@ -19692,10 +19606,10 @@
       <c r="D7" s="43"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="264"/>
+      <c r="G7" s="254"/>
       <c r="H7" s="39"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="135"/>
+      <c r="K7" s="125"/>
       <c r="L7" s="45"/>
       <c r="M7" s="45"/>
       <c r="N7" s="45"/>
@@ -19710,7 +19624,7 @@
       <c r="D8" s="43"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
-      <c r="G8" s="264"/>
+      <c r="G8" s="254"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -19729,7 +19643,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="265"/>
+      <c r="G9" s="255"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
@@ -19746,7 +19660,7 @@
       <c r="D10" s="45"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
-      <c r="G10" s="264"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -19758,35 +19672,35 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="266"/>
+      <c r="G11" s="256"/>
       <c r="H11" s="94"/>
       <c r="I11" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="50"/>
       <c r="K11" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O11" s="68"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="115" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="98" t="s">
@@ -19795,34 +19709,34 @@
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="267" t="s">
+      <c r="G12" s="257" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="128" t="s">
+      <c r="I12" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128" t="s">
+      <c r="J12" s="118"/>
+      <c r="K12" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128" t="s">
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="129"/>
+      <c r="O12" s="119"/>
       <c r="P12" s="97" t="s">
         <v>68</v>
       </c>
@@ -19830,7 +19744,7 @@
         <v>69</v>
       </c>
       <c r="R12" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S12" s="96" t="s">
         <v>46</v>
@@ -19851,67 +19765,67 @@
       <c r="D13" s="81">
         <v>0</v>
       </c>
-      <c r="E13" s="329" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="330"/>
-      <c r="G13" s="331"/>
+      <c r="E13" s="318" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="319"/>
+      <c r="G13" s="320"/>
       <c r="H13" s="82"/>
-      <c r="I13" s="136">
+      <c r="I13" s="126">
         <v>0</v>
       </c>
-      <c r="J13" s="137">
+      <c r="J13" s="127">
         <v>0</v>
       </c>
-      <c r="K13" s="137">
+      <c r="K13" s="127">
         <v>0</v>
       </c>
-      <c r="L13" s="138">
+      <c r="L13" s="128">
         <v>0</v>
       </c>
-      <c r="M13" s="139">
+      <c r="M13" s="129">
         <v>0</v>
       </c>
-      <c r="N13" s="140">
+      <c r="N13" s="130">
         <v>0</v>
       </c>
-      <c r="O13" s="141">
+      <c r="O13" s="131">
         <v>0</v>
       </c>
-      <c r="Q13" s="142" t="e">
+      <c r="Q13" s="132" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="R13" s="55"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="D14" s="143" t="e">
+      <c r="D14" s="133" t="e">
         <f>'INVOICE(無償サンプル抜き価格)'!H20+'INVOICE(無償サンプル抜き価格)'!#REF!+'Invoice-4 (TESTER)'!E14</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="144"/>
+      <c r="Q14" s="134"/>
     </row>
     <row r="15" spans="1:21">
       <c r="D15" s="58"/>
       <c r="M15" s="59"/>
-      <c r="Q15" s="144"/>
+      <c r="Q15" s="134"/>
     </row>
     <row r="16" spans="1:21">
       <c r="N16" s="60"/>
     </row>
     <row r="17" spans="13:16">
-      <c r="M17" s="114"/>
+      <c r="M17" s="104"/>
       <c r="N17" s="60"/>
     </row>
     <row r="18" spans="13:16">
-      <c r="M18" s="114"/>
+      <c r="M18" s="104"/>
       <c r="N18" s="60"/>
-      <c r="P18" s="280"/>
+      <c r="P18" s="270"/>
     </row>
     <row r="19" spans="13:16" ht="26.25" customHeight="1">
-      <c r="M19" s="145"/>
+      <c r="M19" s="135"/>
       <c r="N19" s="60"/>
-      <c r="P19" s="280"/>
+      <c r="P19" s="270"/>
     </row>
     <row r="20" spans="13:16">
       <c r="N20" s="62"/>
@@ -19933,10 +19847,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225C2EAC-FF4E-0647-B497-F14FC8D1154C}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -19959,9 +19873,9 @@
     <col min="16" max="16" width="7.125" style="53" customWidth="1"/>
     <col min="17" max="17" width="14.875" style="53" customWidth="1"/>
     <col min="18" max="18" width="11.375" style="53" customWidth="1"/>
-    <col min="19" max="19" width="30.625" style="281" customWidth="1"/>
-    <col min="20" max="20" width="16.25" style="282" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" style="282" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.625" style="271" customWidth="1"/>
+    <col min="20" max="20" width="16.25" style="272" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" style="272" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
@@ -20149,30 +20063,30 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
       <c r="G11" s="94"/>
       <c r="H11" s="94"/>
       <c r="I11" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="50"/>
       <c r="K11" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O11" s="68"/>
     </row>
@@ -20214,14 +20128,14 @@
         <v>67</v>
       </c>
       <c r="O12" s="73"/>
-      <c r="P12" s="283" t="s">
+      <c r="P12" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="284" t="s">
+      <c r="Q12" s="274" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="284" t="s">
-        <v>71</v>
+      <c r="R12" s="274" t="s">
+        <v>70</v>
       </c>
       <c r="S12" s="96" t="s">
         <v>46</v>
@@ -20233,279 +20147,244 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J13" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="285"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-    </row>
-    <row r="14" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="e">
+    <row r="13" spans="1:21" ht="24" customHeight="1" thickBot="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="81" t="e">
+      <c r="D13" s="81" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="329" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="330"/>
-      <c r="G14" s="331"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83">
+      <c r="E13" s="318" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="319"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83">
         <v>0</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J13" s="84">
         <v>0</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K13" s="84">
         <v>0</v>
       </c>
-      <c r="L14" s="130">
+      <c r="L13" s="120">
         <v>0</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M13" s="85">
         <v>0</v>
       </c>
-      <c r="N14" s="86">
+      <c r="N13" s="86">
         <v>0</v>
       </c>
-      <c r="O14" s="87">
+      <c r="O13" s="87">
         <v>0</v>
       </c>
-      <c r="Q14" s="55" t="e">
+      <c r="Q13" s="55" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R14" s="55"/>
-    </row>
-    <row r="15" spans="1:21" s="12" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="74" t="e">
-        <f>C14+'PL1'!C13</f>
+      <c r="R13" s="55"/>
+    </row>
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="74" t="e">
+        <f>C13+'PL1'!C13</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="74" t="e">
-        <f>D14+'PL1'!D13</f>
+      <c r="D14" s="74" t="e">
+        <f>D13+'PL1'!D13</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="75">
-        <f>J14+'PL1'!J13</f>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="75">
+        <f>J13+'PL1'!J13</f>
         <v>0</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="75">
-        <f>M14+'PL1'!M13</f>
+      <c r="K14" s="26"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="75">
+        <f>M13+'PL1'!M13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="76">
-        <f>O14+'PL1'!O13</f>
+      <c r="N14" s="26"/>
+      <c r="O14" s="76">
+        <f>O13+'PL1'!O13</f>
         <v>0</v>
       </c>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57" t="e">
-        <f>Q14+'PL1'!Q13</f>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="57" t="e">
+        <f>Q13+'PL1'!Q13</f>
         <v>#REF!</v>
       </c>
-      <c r="R15" s="56"/>
-      <c r="S15" s="287"/>
-      <c r="T15" s="288"/>
-      <c r="U15" s="288"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="276"/>
+      <c r="T14" s="277"/>
+      <c r="U14" s="277"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="D15" s="58"/>
+      <c r="M15" s="77"/>
+      <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="D16" s="58"/>
-      <c r="M16" s="77"/>
+      <c r="N16" s="60"/>
       <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="12:17">
-      <c r="N17" s="60"/>
+      <c r="L17" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="104" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="60" t="e">
+        <f>SUM('Invoice-2'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="12:17">
       <c r="L18" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="114" t="e">
-        <f>#REF!</f>
+        <v>18</v>
+      </c>
+      <c r="M18" s="104" t="e">
+        <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N18" s="60" t="e">
+      <c r="N18" s="62" t="e">
         <f>SUM('Invoice-2'!#REF!)</f>
         <v>#REF!</v>
       </c>
+      <c r="P18" s="270"/>
       <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="12:17">
       <c r="L19" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="114" t="e">
+        <v>116</v>
+      </c>
+      <c r="M19" s="105" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N19" s="62" t="e">
-        <f>SUM('Invoice-2'!#REF!)</f>
+      <c r="N19" s="60" t="e">
+        <f>SUM('Invoice-2'!#REF!)+O19</f>
         <v>#REF!</v>
       </c>
-      <c r="P19" s="280"/>
+      <c r="O19" s="33" t="e">
+        <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P19" s="270"/>
       <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="12:17">
       <c r="L20" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="115" t="e">
+      <c r="M20" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N20" s="60" t="e">
+      <c r="N20" s="62" t="e">
         <f>SUM('Invoice-2'!#REF!)+O20</f>
         <v>#REF!</v>
       </c>
       <c r="O20" s="33" t="e">
-        <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
+        <f>'Invoice-5 (TESTER) '!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="P20" s="280"/>
-      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="12:17">
       <c r="L21" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" s="114" t="e">
+        <v>122</v>
+      </c>
+      <c r="M21" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N21" s="62" t="e">
-        <f>SUM('Invoice-2'!#REF!)+O21</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" s="33" t="e">
-        <f>'Invoice-5 (TESTER) '!#REF!</f>
+      <c r="N21" s="33" t="e">
+        <f>'Invoice-2'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="12:17">
       <c r="L22" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="114" t="e">
+        <v>143</v>
+      </c>
+      <c r="M22" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="N22" s="33" t="e">
-        <f>'Invoice-2'!#REF!</f>
+        <f>SUM('Invoice-2'!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="12:17">
       <c r="L23" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="114" t="e">
-        <f>SUM(#REF!)</f>
+        <v>19</v>
+      </c>
+      <c r="M23" s="104" t="e">
+        <f>SUM(#REF!)+'PL1'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="N23" s="33" t="e">
         <f>SUM('Invoice-2'!#REF!)</f>
         <v>#REF!</v>
       </c>
+      <c r="O23" s="33" t="e">
+        <f>SUM('Invoice-4 (TESTER)'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q23" s="53" t="e">
+        <f>N23+O23</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="24" spans="12:17">
       <c r="L24" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="114" t="e">
-        <f>SUM(#REF!)+'PL1'!#REF!</f>
+        <v>144</v>
+      </c>
+      <c r="M24" s="104" t="e">
+        <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="N24" s="33" t="e">
-        <f>SUM('Invoice-2'!#REF!)</f>
+        <f>SUM('Invoice-2'!#REF!)+O24</f>
         <v>#REF!</v>
       </c>
       <c r="O24" s="33" t="e">
-        <f>SUM('Invoice-4 (TESTER)'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q24" s="53" t="e">
-        <f>N24+O24</f>
+        <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="12:17">
       <c r="L25" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="114" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N25" s="33" t="e">
-        <f>SUM('Invoice-2'!#REF!)+O25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O25" s="33" t="e">
-        <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="12:17">
-      <c r="L26" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="12:17">
-      <c r="M28" s="218" t="e">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17">
+      <c r="M27" s="208" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A11:W15" xr:uid="{225C2EAC-FF4E-0647-B497-F14FC8D1154C}"/>
+  <autoFilter ref="A11:W14" xr:uid="{225C2EAC-FF4E-0647-B497-F14FC8D1154C}"/>
   <mergeCells count="1">
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20518,8 +20397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7358C521-D1D8-4748-AAE1-33F79F2AA756}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -20530,7 +20409,7 @@
     <col min="4" max="4" width="10.125" style="33" customWidth="1"/>
     <col min="5" max="5" width="41.375" style="33" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="35.25" style="268" customWidth="1"/>
+    <col min="7" max="7" width="35.25" style="258" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="33" customWidth="1"/>
     <col min="9" max="9" width="9" style="33" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="33" customWidth="1"/>
@@ -20541,9 +20420,9 @@
     <col min="15" max="16" width="13.375" style="33" customWidth="1"/>
     <col min="17" max="17" width="14.875" style="33" customWidth="1"/>
     <col min="18" max="18" width="11.375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="38.625" style="281" customWidth="1"/>
-    <col min="20" max="20" width="14.75" style="282" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.25" style="282" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.625" style="271" customWidth="1"/>
+    <col min="20" max="20" width="14.75" style="272" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.25" style="272" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
@@ -20556,7 +20435,7 @@
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
-      <c r="G1" s="261"/>
+      <c r="G1" s="251"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
@@ -20573,7 +20452,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="261"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
@@ -20590,7 +20469,7 @@
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
-      <c r="G3" s="261"/>
+      <c r="G3" s="251"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
@@ -20607,7 +20486,7 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="262"/>
+      <c r="G4" s="252"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
@@ -20629,7 +20508,7 @@
       <c r="D5" s="65"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="263"/>
+      <c r="G5" s="253"/>
       <c r="H5" s="38"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
@@ -20646,7 +20525,7 @@
       <c r="D6" s="43"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="264"/>
+      <c r="G6" s="254"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
@@ -20665,7 +20544,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="264"/>
+      <c r="G7" s="254"/>
       <c r="H7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
@@ -20683,7 +20562,7 @@
       <c r="D8" s="43"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
-      <c r="G8" s="264"/>
+      <c r="G8" s="254"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -20702,7 +20581,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="265"/>
+      <c r="G9" s="255"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
@@ -20720,7 +20599,7 @@
       <c r="D10" s="45"/>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
-      <c r="G10" s="264"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -20732,35 +20611,35 @@
     </row>
     <row r="11" spans="1:21" ht="13.5" customHeight="1">
       <c r="A11" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="266"/>
+      <c r="G11" s="256"/>
       <c r="H11" s="94"/>
-      <c r="I11" s="332" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="334"/>
-      <c r="K11" s="332" t="s">
+      <c r="I11" s="321" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="323"/>
+      <c r="K11" s="321" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="322"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="321" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="333"/>
-      <c r="M11" s="334"/>
-      <c r="N11" s="332" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="335"/>
+      <c r="O11" s="324"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="115" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="98" t="s">
@@ -20769,42 +20648,42 @@
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="267" t="s">
+      <c r="G12" s="257" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="128" t="s">
+      <c r="I12" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128" t="s">
+      <c r="J12" s="118"/>
+      <c r="K12" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128" t="s">
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="129"/>
-      <c r="P12" s="283" t="s">
+      <c r="O12" s="119"/>
+      <c r="P12" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="284" t="s">
+      <c r="Q12" s="274" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="284" t="s">
-        <v>71</v>
+      <c r="R12" s="274" t="s">
+        <v>70</v>
       </c>
       <c r="S12" s="96" t="s">
         <v>46</v>
@@ -20817,52 +20696,52 @@
       </c>
     </row>
     <row r="13" spans="1:21" s="12" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118" t="e">
-        <f>#REF!+'PL2'!C15</f>
+      <c r="A13" s="106"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108" t="e">
+        <f>#REF!+'PL2'!C14</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="119" t="e">
-        <f>#REF!+'PL2'!D15</f>
+      <c r="D13" s="109" t="e">
+        <f>#REF!+'PL2'!D14</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="336" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="336"/>
-      <c r="G13" s="336"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117">
+      <c r="E13" s="325" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="325"/>
+      <c r="G13" s="325"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107">
         <v>0</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="110">
         <v>0</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="107">
         <v>0</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="111">
         <v>0</v>
       </c>
-      <c r="M13" s="120">
+      <c r="M13" s="110">
         <v>0</v>
       </c>
-      <c r="N13" s="117">
+      <c r="N13" s="107">
         <v>0</v>
       </c>
-      <c r="O13" s="224">
+      <c r="O13" s="214">
         <v>0</v>
       </c>
       <c r="P13" s="56"/>
       <c r="Q13" s="57" t="e">
-        <f>'PL2'!Q15+'PL3'!#REF!</f>
+        <f>'PL2'!Q14+'PL3'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="R13" s="56"/>
-      <c r="S13" s="287"/>
-      <c r="T13" s="288"/>
-      <c r="U13" s="288"/>
+      <c r="S13" s="276"/>
+      <c r="T13" s="277"/>
+      <c r="U13" s="277"/>
     </row>
     <row r="14" spans="1:21">
       <c r="D14" s="58"/>
@@ -20871,10 +20750,10 @@
       </c>
       <c r="P14" s="54"/>
       <c r="Q14" s="54"/>
-      <c r="S14" s="286"/>
+      <c r="S14" s="275"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="M15" s="216">
+      <c r="M15" s="206">
         <f>M14-M13</f>
         <v>1156.7429999999999</v>
       </c>
@@ -20883,8 +20762,8 @@
         <v>1403.8230000000001</v>
       </c>
       <c r="P15" s="54"/>
-      <c r="Q15" s="131"/>
-      <c r="S15" s="286"/>
+      <c r="Q15" s="121"/>
+      <c r="S15" s="275"/>
     </row>
     <row r="16" spans="1:21">
       <c r="N16" s="60"/>
@@ -20894,13 +20773,13 @@
       </c>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
-      <c r="S16" s="286"/>
+      <c r="S16" s="275"/>
     </row>
     <row r="17" spans="11:19">
       <c r="K17" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="114" t="e">
+        <v>72</v>
+      </c>
+      <c r="L17" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -20909,19 +20788,19 @@
         <v>#REF!</v>
       </c>
       <c r="N17" s="60"/>
-      <c r="P17" s="132"/>
+      <c r="P17" s="122"/>
       <c r="Q17" s="54"/>
-      <c r="S17" s="286"/>
+      <c r="S17" s="275"/>
     </row>
     <row r="18" spans="11:19">
       <c r="K18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="L18" s="114" t="e">
+        <v>136</v>
+      </c>
+      <c r="L18" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M18" s="114" t="e">
+      <c r="M18" s="104" t="e">
         <f>SUM('Invoice-3'!#REF!)+N18</f>
         <v>#REF!</v>
       </c>
@@ -20935,11 +20814,11 @@
       <c r="K19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="114" t="e">
+      <c r="L19" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M19" s="114" t="e">
+      <c r="M19" s="104" t="e">
         <f>SUM('Invoice-3'!#REF!)+N19</f>
         <v>#REF!</v>
       </c>
@@ -20947,31 +20826,31 @@
         <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P19" s="133"/>
+      <c r="P19" s="123"/>
     </row>
     <row r="20" spans="11:19">
       <c r="K20" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="114" t="e">
+        <v>105</v>
+      </c>
+      <c r="L20" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M20" s="114" t="e">
+      <c r="M20" s="104" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N20" s="114"/>
+      <c r="N20" s="104"/>
     </row>
     <row r="21" spans="11:19">
       <c r="K21" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="114" t="e">
+        <v>137</v>
+      </c>
+      <c r="L21" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="114" t="e">
+      <c r="M21" s="104" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -20979,22 +20858,22 @@
     </row>
     <row r="22" spans="11:19">
       <c r="K22" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="114" t="e">
+        <v>138</v>
+      </c>
+      <c r="L22" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="114" t="e">
+      <c r="M22" s="104" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="11:19">
       <c r="K23" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="114" t="e">
+        <v>139</v>
+      </c>
+      <c r="L23" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -21005,27 +20884,27 @@
     </row>
     <row r="24" spans="11:19">
       <c r="K24" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="11:19">
       <c r="K25" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="114" t="e">
+        <v>142</v>
+      </c>
+      <c r="L25" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="217" t="e">
+      <c r="M25" s="207" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="11:19">
       <c r="K26" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="114" t="e">
+        <v>141</v>
+      </c>
+      <c r="L26" s="104" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -21039,7 +20918,7 @@
       </c>
     </row>
     <row r="27" spans="11:19">
-      <c r="L27" s="114" t="e">
+      <c r="L27" s="104" t="e">
         <f>SUM(L17:L26)</f>
         <v>#REF!</v>
       </c>

--- a/data/InvoicePacking_Template.xlsx
+++ b/data/InvoicePacking_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81904\Downloads\kristina\kristina_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FC559-D611-4700-B55E-E75AB291A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7D9EB-3298-4903-B646-CDE5F0C937EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE(無償サンプル抜き価格)" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PL1'!$A$11:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PL2'!$A$11:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PL3'!$A$11:$U$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'INVOICE(無償サンプル抜き価格)'!$A$1:$J$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'INVOICE(無償サンプル抜き価格)'!$A$1:$N$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Invoice-2'!$A$1:$N$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Invoice-3'!$A$1:$N$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Invoice-4 (TESTER)'!$A$1:$M$14</definedName>
@@ -44,7 +44,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'PL2'!$A$1:$O$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'PL3'!$A$1:$O$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="193">
   <si>
     <t>INVOICE</t>
     <phoneticPr fontId="6"/>
@@ -708,10 +708,6 @@
     <t>BEAUTY GARAGE</t>
   </si>
   <si>
-    <t>FOB</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <r>
       <t>INV.NO.</t>
     </r>
@@ -820,21 +816,6 @@
         <charset val="204"/>
       </rPr>
       <t>RUSSIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FOB (N.C.V</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="BIZ UDMincho Medium"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
     </r>
   </si>
   <si>
@@ -1655,14 +1636,42 @@
       <t>КАРТОЧКА НА МОДЕРАЦИИ  срок 30.03.2025-29.03.2028</t>
     </r>
   </si>
+  <si>
+    <t>NET重量照合用</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ner w/t product</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tester</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TTL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="33">
+  <numFmts count="31">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
@@ -1692,10 +1701,9 @@
     <numFmt numFmtId="201" formatCode="&quot;¥&quot;#,##0.0000_);[Red]\(&quot;¥&quot;#,##0.0000\)"/>
     <numFmt numFmtId="202" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;???\ _₽_-;_-@_-"/>
     <numFmt numFmtId="203" formatCode="0.00000_);[Red]\(0.00000\)"/>
-    <numFmt numFmtId="204" formatCode="0.0000%"/>
-    <numFmt numFmtId="205" formatCode="0.0000_ "/>
+    <numFmt numFmtId="204" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="98">
+  <fonts count="99">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,13 +2187,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="BIZ UDMincho Medium"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2370,6 +2371,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -2519,7 +2533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="137">
+  <borders count="140">
     <border>
       <left/>
       <right/>
@@ -4256,15 +4270,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -4297,6 +4302,56 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -9023,7 +9078,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="110" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="111" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9058,9 +9113,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="54" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -9068,9 +9120,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="24" borderId="0" xfId="59" applyFont="1" applyFill="1"/>
@@ -9093,17 +9142,8 @@
     <xf numFmtId="179" fontId="58" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="54" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -9145,13 +9185,13 @@
     <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="72" fillId="0" borderId="113" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="71" fillId="0" borderId="113" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9187,33 +9227,33 @@
     <xf numFmtId="196" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="183" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="112" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="112" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="113" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="113" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="72" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="71" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="188" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9233,32 +9273,26 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="120" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="72" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="71" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="120" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="120" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="72" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="71" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="72" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="71" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="72" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="71" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="120" xfId="122" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="72" fillId="0" borderId="121" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="71" fillId="0" borderId="121" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="24" borderId="0" xfId="122" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="24" borderId="0" xfId="122" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="58" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -9272,22 +9306,22 @@
     <xf numFmtId="38" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="96" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="119" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9296,10 +9330,10 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="120" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="115" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="115" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="189" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -9326,26 +9360,20 @@
     <xf numFmtId="203" fontId="51" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="204" fontId="54" fillId="24" borderId="0" xfId="122" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="54" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="54" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="117" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="117" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="72" fillId="0" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="71" fillId="0" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="191" fontId="68" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9362,25 +9390,25 @@
     <xf numFmtId="43" fontId="68" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="72" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="71" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="72" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="71" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="191" fontId="68" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="72" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="71" fillId="0" borderId="120" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="120" xfId="122" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="72" fillId="0" borderId="121" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="71" fillId="0" borderId="121" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -9389,46 +9417,46 @@
     <xf numFmtId="6" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="189" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="58" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="12" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="25" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="12" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="13" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="14" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="24" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="15" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="76" fillId="0" borderId="14" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="15" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="14" xfId="57" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="24" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="11" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="12" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="25" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="12" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="13" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="14" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="24" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="15" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="75" fillId="0" borderId="14" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="15" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="14" xfId="57" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="75" fillId="0" borderId="24" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="57" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="21" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="17" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="17" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="18" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="19" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="20" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="16" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="76" fillId="0" borderId="0" xfId="122" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="57" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="21" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="17" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="17" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="18" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="19" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="20" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="16" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="75" fillId="0" borderId="0" xfId="122" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="58" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="91" xfId="58" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
@@ -9441,78 +9469,42 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="184" fontId="79" fillId="0" borderId="86" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="78" fillId="0" borderId="86" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="58" applyFont="1"/>
     <xf numFmtId="179" fontId="57" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="199" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="200" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="201" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="199" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="200" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="201" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="198" fontId="58" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="127" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="127" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="198" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="79" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="198" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="22" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="81" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="51" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="54" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="54" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="54" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="205" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="204" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -9525,11 +9517,11 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="66" fillId="0" borderId="128" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="66" fillId="0" borderId="129" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="197" fontId="51" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
@@ -9550,16 +9542,16 @@
     <xf numFmtId="184" fontId="58" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="79" fillId="0" borderId="91" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="78" fillId="0" borderId="91" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="79" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="78" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9574,70 +9566,70 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="129" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="133" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="134" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="127" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="58" fillId="0" borderId="106" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="79" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="79" fillId="0" borderId="128" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="79" fillId="0" borderId="129" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="78" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="78" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="78" fillId="0" borderId="86" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="66" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="67" fillId="0" borderId="86" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="135" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="127" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="58" fillId="0" borderId="106" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="128" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="128" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="129" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="79" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="79" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="79" fillId="0" borderId="86" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="66" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="67" fillId="0" borderId="86" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="136" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
@@ -9652,43 +9644,43 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="76" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="75" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
@@ -9703,10 +9695,10 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9718,22 +9710,22 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9748,52 +9740,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="24" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="97" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="54" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="24" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="51" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="54" fillId="24" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="51" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="24" borderId="24" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="97" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="95" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="24" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="54" fillId="0" borderId="0" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9838,25 +9869,25 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="91" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="23" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="23" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="91" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="91" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="130" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="130" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="71" fillId="0" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16375,75 +16406,68 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="195"/>
-    <col min="4" max="5" width="0" style="195" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="195"/>
-    <col min="8" max="8" width="15.875" style="195" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.375" style="195"/>
-    <col min="11" max="11" width="14.25" style="195" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="195" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="195" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="195" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="195" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.375" style="195"/>
+    <col min="1" max="3" width="9.375" style="181"/>
+    <col min="4" max="5" width="0" style="181" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="181"/>
+    <col min="8" max="8" width="15.875" style="181" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.375" style="181"/>
+    <col min="11" max="11" width="14.75" style="181" customWidth="1"/>
+    <col min="12" max="16384" width="9.375" style="181"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="37.5">
-      <c r="G1" s="304" t="s">
+    <row r="1" spans="1:10">
+      <c r="G1" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="38.25" thickBot="1">
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
-      <c r="J2" s="305"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" ht="22.5">
-      <c r="A3" s="309" t="s">
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+    </row>
+    <row r="3" spans="1:10" ht="22.5">
+      <c r="A3" s="301" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="22.5">
-      <c r="A4" s="309"/>
-      <c r="B4" s="309"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309"/>
+    <row r="4" spans="1:10" ht="22.5">
+      <c r="A4" s="301"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
       <c r="E4" s="9"/>
-      <c r="G4" s="195" t="s">
+      <c r="G4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="310">
+      <c r="H4" s="302">
         <v>45842</v>
       </c>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="196"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
@@ -16452,119 +16476,119 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="195" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="181" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="195" t="s">
+      <c r="G6" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="311" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="312"/>
-      <c r="J6" s="312"/>
-      <c r="K6" s="197"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="195" t="s">
+      <c r="H6" s="303" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="304"/>
+      <c r="J6" s="304"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="195" t="s">
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="313" t="s">
+      <c r="B8" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="313"/>
-      <c r="D8" s="313"/>
-      <c r="H8" s="314"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="199"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="G9" s="195" t="s">
+      <c r="C8" s="305"/>
+      <c r="D8" s="305"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="G9" s="181" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="G10" s="308" t="s">
+    <row r="10" spans="1:10">
+      <c r="G10" s="300" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="308"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="G11" s="315" t="s">
+      <c r="H10" s="300"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="300"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="G11" s="307" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="315"/>
-      <c r="I11" s="315"/>
-      <c r="J11" s="315"/>
-      <c r="K11" s="200"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="G12" s="315"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="315"/>
-      <c r="J12" s="315"/>
-      <c r="K12" s="200"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="G13" s="315"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="315"/>
-      <c r="J13" s="315"/>
-      <c r="K13" s="200"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="G14" s="195" t="s">
+      <c r="H11" s="307"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="307"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="G12" s="307"/>
+      <c r="H12" s="307"/>
+      <c r="I12" s="307"/>
+      <c r="J12" s="307"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13" s="307"/>
+      <c r="H13" s="307"/>
+      <c r="I13" s="307"/>
+      <c r="J13" s="307"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="308" t="s">
+      <c r="H14" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="308"/>
-      <c r="J14" s="308"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="H15" s="308"/>
-      <c r="I15" s="308"/>
-      <c r="J15" s="308"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A17" s="194" t="s">
+      <c r="I14" s="300"/>
+      <c r="J14" s="300"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="H15" s="300"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="300"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" thickBot="1">
+      <c r="A17" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="306" t="s">
+      <c r="B17" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="307"/>
-      <c r="D17" s="307"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="307"/>
-      <c r="G17" s="307"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="299"/>
+      <c r="F17" s="299"/>
+      <c r="G17" s="299"/>
       <c r="H17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="306" t="s">
+      <c r="I17" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="307"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="J17" s="299"/>
+      <c r="K17" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="284"/>
+      <c r="M17" s="284"/>
+      <c r="N17" s="284"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="12"/>
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
@@ -16572,32 +16596,43 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="301"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="192"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="H18" s="274"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="295"/>
+      <c r="K18" s="274" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" s="274" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="278" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="12">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="301"/>
-      <c r="J19" s="303"/>
-      <c r="K19" s="192">
-        <f>SUM(I19:J22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="H19" s="84"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="286"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="279"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -16609,13 +16644,15 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="301"/>
-      <c r="J20" s="303"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="H20" s="84"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="286"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="279"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="12">
         <v>3</v>
       </c>
@@ -16627,142 +16664,155 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="294"/>
-      <c r="J21" s="294"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="30"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="H21" s="275"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="275"/>
+      <c r="N21" s="280"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="12">
         <v>4</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
-      <c r="K22" s="189"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="G22" s="12"/>
+      <c r="H22" s="275"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="275"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="275"/>
+      <c r="N22" s="280"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="12">
         <v>5</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>127</v>
+      <c r="B23" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="294"/>
-      <c r="K23" s="189">
-        <f>SUM(I23:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="G23" s="12"/>
+      <c r="H23" s="275"/>
+      <c r="I23" s="285"/>
+      <c r="J23" s="286"/>
+      <c r="K23" s="275"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="275"/>
+      <c r="N23" s="280"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="295"/>
-      <c r="J24" s="295"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="G24" s="12"/>
+      <c r="H24" s="275"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="286"/>
+      <c r="K24" s="275"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="275"/>
+      <c r="N24" s="280"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>116</v>
+      <c r="B25" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="295"/>
-      <c r="J25" s="295"/>
-      <c r="K25" s="189"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="G25" s="12"/>
+      <c r="H25" s="275"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="275"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="275"/>
+      <c r="N25" s="280"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="12">
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
-      <c r="K26" s="189"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="G26" s="12"/>
+      <c r="H26" s="275"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="286"/>
+      <c r="K26" s="275"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="275"/>
+      <c r="N26" s="280"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="12">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="G27" s="12"/>
+      <c r="H27" s="275"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="286"/>
+      <c r="K27" s="275"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="275"/>
+      <c r="N27" s="280"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="12">
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
-      <c r="K28" s="189"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="G28" s="12"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="286"/>
+      <c r="K28" s="275"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="280"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="12">
         <v>11</v>
       </c>
@@ -16773,14 +16823,16 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="189"/>
-      <c r="P29" s="30"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="G29" s="12"/>
+      <c r="H29" s="275"/>
+      <c r="I29" s="285"/>
+      <c r="J29" s="286"/>
+      <c r="K29" s="275"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="275"/>
+      <c r="N29" s="280"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="12">
         <v>12</v>
       </c>
@@ -16791,117 +16843,136 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="189"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="G30" s="12"/>
+      <c r="H30" s="275"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="286"/>
+      <c r="K30" s="275"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="275"/>
+      <c r="N30" s="280"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="12">
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="204"/>
-      <c r="I31" s="298"/>
-      <c r="J31" s="295"/>
-      <c r="K31" s="191"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="G31" s="12"/>
+      <c r="H31" s="275"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="286"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="275"/>
+      <c r="N31" s="280"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="12">
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="204"/>
-      <c r="I32" s="298"/>
-      <c r="J32" s="295"/>
-      <c r="K32" s="191"/>
-      <c r="L32" s="18"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="G32" s="12"/>
+      <c r="H32" s="275"/>
+      <c r="I32" s="285"/>
+      <c r="J32" s="286"/>
+      <c r="K32" s="275"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="275"/>
+      <c r="N32" s="280"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="12">
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="204"/>
-      <c r="I33" s="298"/>
-      <c r="J33" s="295"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="18"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="G33" s="12"/>
+      <c r="H33" s="275"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="275"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="275"/>
+      <c r="N33" s="280"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="12">
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="204"/>
-      <c r="I34" s="298"/>
-      <c r="J34" s="295"/>
-      <c r="K34" s="191"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="G34" s="12"/>
+      <c r="H34" s="275"/>
+      <c r="I34" s="287"/>
+      <c r="J34" s="288"/>
+      <c r="K34" s="275"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="280"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="12">
         <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="293"/>
-      <c r="J35" s="294"/>
-      <c r="K35" s="189"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="G35" s="12"/>
+      <c r="H35" s="275"/>
+      <c r="I35" s="287"/>
+      <c r="J35" s="288"/>
+      <c r="K35" s="275"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="275"/>
+      <c r="N35" s="280"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="12">
         <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="293"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="189"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="G36" s="12"/>
+      <c r="H36" s="276"/>
+      <c r="I36" s="287"/>
+      <c r="J36" s="288"/>
+      <c r="K36" s="276"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="276"/>
+      <c r="N36" s="281"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="12">
         <v>19</v>
       </c>
@@ -16912,33 +16983,36 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="293"/>
-      <c r="J37" s="294"/>
-      <c r="K37" s="189">
-        <f>SUM(I37:J46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="G37" s="12"/>
+      <c r="H37" s="276"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="276"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="276"/>
+      <c r="N37" s="281"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="12">
         <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="293"/>
-      <c r="J38" s="294"/>
-      <c r="K38" s="189"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="G38" s="12"/>
+      <c r="H38" s="276"/>
+      <c r="I38" s="287"/>
+      <c r="J38" s="288"/>
+      <c r="K38" s="276"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="276"/>
+      <c r="N38" s="281"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="12">
         <v>21</v>
       </c>
@@ -16949,98 +17023,116 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="293"/>
-      <c r="J39" s="294"/>
-      <c r="K39" s="189"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="G39" s="12"/>
+      <c r="H39" s="276"/>
+      <c r="I39" s="287"/>
+      <c r="J39" s="288"/>
+      <c r="K39" s="276"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="276"/>
+      <c r="N39" s="281"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="12">
         <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="203"/>
-      <c r="I40" s="293"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="189"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="G40" s="12"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="285"/>
+      <c r="J40" s="286"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="281"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="12">
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="293"/>
-      <c r="J41" s="294"/>
-      <c r="K41" s="189"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="G41" s="12"/>
+      <c r="H41" s="276"/>
+      <c r="I41" s="285"/>
+      <c r="J41" s="286"/>
+      <c r="K41" s="276"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="276"/>
+      <c r="N41" s="281"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="12">
         <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="293"/>
-      <c r="J42" s="294"/>
-      <c r="K42" s="189"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="G42" s="12"/>
+      <c r="H42" s="276"/>
+      <c r="I42" s="285"/>
+      <c r="J42" s="286"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="276"/>
+      <c r="N42" s="281"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="12">
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="204"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="293"/>
-      <c r="J43" s="294"/>
-      <c r="K43" s="189"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="G43" s="12"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="285"/>
+      <c r="J43" s="286"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="279"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="12">
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="204"/>
-      <c r="H44" s="203"/>
-      <c r="I44" s="293"/>
-      <c r="J44" s="294"/>
-      <c r="K44" s="189"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="G44" s="12"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="286"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="279"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="12">
         <v>27</v>
       </c>
@@ -17051,31 +17143,36 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="203"/>
-      <c r="I45" s="293"/>
-      <c r="J45" s="294"/>
-      <c r="K45" s="189"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A46" s="16">
+      <c r="G45" s="12"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="285"/>
+      <c r="J45" s="286"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="279"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A46" s="15">
         <v>28</v>
       </c>
-      <c r="B46" s="201" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="299"/>
-      <c r="J46" s="300"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" thickTop="1">
+      <c r="B46" s="183" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="291"/>
+      <c r="J46" s="292"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="277"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="282"/>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" thickTop="1">
       <c r="A47" s="12"/>
       <c r="B47" s="13" t="s">
         <v>97</v>
@@ -17085,119 +17182,78 @@
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="294"/>
-      <c r="J47" s="294"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="18">
-        <v>500000</v>
-      </c>
-      <c r="M47" s="112">
-        <f>L47/L48</f>
-        <v>4.3131305149843327E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="H47" s="86"/>
+      <c r="I47" s="293"/>
+      <c r="J47" s="293"/>
+      <c r="K47" s="272"/>
+      <c r="L47" s="272"/>
+      <c r="M47" s="272"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="12"/>
       <c r="G48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="27">
         <f>SUM(H19:H47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="296">
+      <c r="I48" s="289">
         <f>SUM(I19:J47)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="297"/>
-      <c r="K48" s="190" t="s">
-        <v>107</v>
-      </c>
-      <c r="L48" s="89">
-        <v>11592508</v>
-      </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="113">
-        <f>I48/2</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="18"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="K49" s="190" t="s">
-        <v>114</v>
-      </c>
-      <c r="L49" s="18">
-        <f>'Invoice-4 (TESTER)'!G14+'Invoice-5 (TESTER) '!G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="L50" s="18">
-        <f>SUM(L48:L49)</f>
-        <v>11592508</v>
-      </c>
-      <c r="M50" s="18"/>
-    </row>
-    <row r="51" spans="1:13" ht="18" customHeight="1">
-      <c r="G51" s="19" t="s">
+      <c r="J48" s="290"/>
+      <c r="K48" s="273"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="K49" s="273"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" customHeight="1">
+      <c r="G51" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="89">
-        <f>I48-L50</f>
-        <v>-11592508</v>
-      </c>
-      <c r="M51" s="88"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="G53" s="22"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="113"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="23"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="23" t="s">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="G53" s="20"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="21"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="23" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -17210,7 +17266,7 @@
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="H15:J15"/>
@@ -17223,12 +17279,6 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I29:J29"/>
@@ -17245,6 +17295,7 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
@@ -17254,10 +17305,16 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -17344,7 +17401,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="318" t="s">
         <v>84</v>
       </c>
       <c r="B7" t="e">
@@ -17353,7 +17410,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="326"/>
+      <c r="A8" s="318"/>
       <c r="B8" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -17502,119 +17559,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="164.25" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="264" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="263" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="263" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="263" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="263" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="194" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="263" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="263" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="263" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="284" t="s">
+      <c r="O1" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="215" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="284" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="215" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="284" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="215" t="s">
+      <c r="P1" s="263" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="263" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="263" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" s="194" t="s">
+        <v>163</v>
+      </c>
+      <c r="V1" s="265" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="284" t="s">
+      <c r="W1" s="271" t="s">
+        <v>187</v>
+      </c>
+      <c r="X1" s="266" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y1" s="242" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="242" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="215" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="284" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="215" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" s="284" t="s">
-        <v>184</v>
-      </c>
-      <c r="M1" s="215" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="284" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="215" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="284" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q1" s="215" t="s">
-        <v>177</v>
-      </c>
-      <c r="R1" s="284" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="215" t="s">
-        <v>176</v>
-      </c>
-      <c r="T1" s="284" t="s">
+      <c r="AA1" s="267" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" s="267" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC1" s="266" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="215" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="286" t="s">
-        <v>187</v>
-      </c>
-      <c r="W1" s="292" t="s">
-        <v>189</v>
-      </c>
-      <c r="X1" s="287" t="s">
+      <c r="AD1" s="268" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE1" s="266" t="s">
         <v>164</v>
       </c>
-      <c r="Y1" s="263" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z1" s="263" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA1" s="288" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB1" s="288" t="s">
+      <c r="AF1" s="266" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG1" s="266" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH1" s="266" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI1" s="266" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ1" s="269" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK1" s="270" t="s">
         <v>152</v>
       </c>
-      <c r="AC1" s="287" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD1" s="289" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE1" s="287" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF1" s="287" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG1" s="287" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH1" s="287" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI1" s="287" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ1" s="290" t="s">
+      <c r="AL1" s="266" t="s">
         <v>153</v>
-      </c>
-      <c r="AK1" s="291" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL1" s="287" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -17632,302 +17689,302 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="137" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="137" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="137" customWidth="1"/>
-    <col min="5" max="5" width="14" style="137" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="140" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="140" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="140" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="140" customWidth="1"/>
-    <col min="10" max="10" width="16" style="140" customWidth="1"/>
-    <col min="11" max="11" width="37" style="262" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="233" customWidth="1"/>
-    <col min="13" max="13" width="28.375" style="233" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="233" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.75" style="280" customWidth="1"/>
-    <col min="16" max="16" width="15.375" style="137" customWidth="1"/>
-    <col min="17" max="17" width="18.625" style="137" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="137" customWidth="1"/>
-    <col min="19" max="23" width="16.375" style="137" customWidth="1"/>
-    <col min="24" max="29" width="2.375" style="137" customWidth="1"/>
-    <col min="30" max="30" width="9" style="137"/>
-    <col min="31" max="31" width="19.375" style="137" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="137"/>
+    <col min="1" max="1" width="10.375" style="128" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="128" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="128" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="128" customWidth="1"/>
+    <col min="5" max="5" width="14" style="128" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="131" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="131" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="131" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="131" customWidth="1"/>
+    <col min="10" max="10" width="16" style="131" customWidth="1"/>
+    <col min="11" max="11" width="37" style="241" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="212" customWidth="1"/>
+    <col min="13" max="13" width="28.375" style="212" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="212" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="259" customWidth="1"/>
+    <col min="16" max="16" width="15.375" style="128" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="128" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="128" customWidth="1"/>
+    <col min="19" max="23" width="16.375" style="128" customWidth="1"/>
+    <col min="24" max="29" width="2.375" style="128" customWidth="1"/>
+    <col min="30" max="30" width="9" style="128"/>
+    <col min="31" max="31" width="19.375" style="128" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A2" s="316"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A3" s="205" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="141" cm="1">
+      <c r="A3" s="184" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="132" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="141">
+      <c r="H3" s="132">
         <v>0</v>
       </c>
-      <c r="I3" s="141">
+      <c r="I3" s="132">
         <v>0</v>
       </c>
-      <c r="J3" s="141"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="139"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="263"/>
+      <c r="G6" s="142"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="242"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="152" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="K8" s="242"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="128"/>
+      <c r="K9" s="242"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="149"/>
+      <c r="D10" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="128"/>
+      <c r="K10" s="242"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5">
+      <c r="A11" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="K8" s="263"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="161" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="148" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="137"/>
-      <c r="K9" s="263"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="163" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="137"/>
-      <c r="K10" s="263"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5">
-      <c r="A11" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="137" t="s">
+      <c r="G11" s="142"/>
+      <c r="K11" s="242"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A12" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="151"/>
-      <c r="K11" s="263"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A12" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="164"/>
-      <c r="K12" s="263"/>
+      <c r="D12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="155"/>
+      <c r="K12" s="242"/>
     </row>
     <row r="13" spans="1:18" ht="26.25" thickBot="1">
-      <c r="A13" s="180"/>
-      <c r="B13" s="226" t="s">
+      <c r="A13" s="171"/>
+      <c r="B13" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="227" t="s">
+      <c r="E13" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="230" t="s">
+      <c r="H13" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="231" t="s">
+      <c r="I13" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="232" t="s">
+      <c r="J13" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="261" t="s">
+      <c r="K13" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="225" t="s">
+      <c r="L13" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="225" t="s">
+      <c r="M13" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="279" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="279"/>
+      <c r="N13" s="258" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="258"/>
     </row>
     <row r="14" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="166" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="222">
+      <c r="A14" s="156"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="201">
         <v>0</v>
       </c>
-      <c r="F14" s="223">
+      <c r="F14" s="202">
         <v>0</v>
       </c>
-      <c r="G14" s="224">
+      <c r="G14" s="203">
         <v>0</v>
       </c>
-      <c r="H14" s="219">
+      <c r="H14" s="198">
         <v>0</v>
       </c>
-      <c r="I14" s="220">
+      <c r="I14" s="199">
         <v>0</v>
       </c>
-      <c r="J14" s="221"/>
-      <c r="R14" s="137" t="e">
+      <c r="J14" s="200"/>
+      <c r="R14" s="128" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="I16" s="177"/>
+      <c r="I16" s="168"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="174" t="e">
+      <c r="I17" s="165" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="9:9">
-      <c r="I18" s="174" t="e">
+      <c r="I18" s="165" t="e">
         <f>I14-I17</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="9:9">
-      <c r="I19" s="174" t="e">
+      <c r="I19" s="165" t="e">
         <f>I18+'Invoice-4 (TESTER)'!I14</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="9:9">
-      <c r="I21" s="177"/>
+      <c r="I21" s="168"/>
     </row>
     <row r="22" spans="9:9">
-      <c r="I22" s="175"/>
+      <c r="I22" s="166"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:M14" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -17956,322 +18013,322 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="128" customWidth="1"/>
     <col min="2" max="2" width="53.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="137" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="137" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="137" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="140" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="140" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="140" customWidth="1"/>
-    <col min="9" max="9" width="15" style="140" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="140" customWidth="1"/>
-    <col min="11" max="11" width="34" style="264" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="233" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="233" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="233" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="280" customWidth="1"/>
-    <col min="16" max="16" width="9" style="137" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="137" customWidth="1"/>
-    <col min="18" max="18" width="11" style="137" customWidth="1"/>
-    <col min="19" max="21" width="2.375" style="137" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="137" customWidth="1"/>
-    <col min="23" max="23" width="19.875" style="137" customWidth="1"/>
-    <col min="24" max="28" width="16.375" style="137" customWidth="1"/>
-    <col min="29" max="34" width="2.375" style="137" customWidth="1"/>
-    <col min="35" max="35" width="9" style="137"/>
-    <col min="36" max="36" width="19.375" style="137" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="137"/>
+    <col min="3" max="3" width="21.875" style="128" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="128" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="128" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="131" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="131" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="131" customWidth="1"/>
+    <col min="9" max="9" width="15" style="131" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="131" customWidth="1"/>
+    <col min="11" max="11" width="34" style="243" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="212" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="212" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="212" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.25" style="259" customWidth="1"/>
+    <col min="16" max="16" width="9" style="128" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="128" customWidth="1"/>
+    <col min="18" max="18" width="11" style="128" customWidth="1"/>
+    <col min="19" max="21" width="2.375" style="128" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="128" customWidth="1"/>
+    <col min="23" max="23" width="19.875" style="128" customWidth="1"/>
+    <col min="24" max="28" width="16.375" style="128" customWidth="1"/>
+    <col min="29" max="34" width="2.375" style="128" customWidth="1"/>
+    <col min="35" max="35" width="9" style="128"/>
+    <col min="36" max="36" width="19.375" style="128" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A2" s="316"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A3" s="205" t="s">
-        <v>146</v>
+      <c r="A3" s="184" t="s">
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="137">
+      <c r="C3" s="128">
         <v>0</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="128">
         <v>0</v>
       </c>
-      <c r="G3" s="141" cm="1">
+      <c r="G3" s="132" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="141">
+      <c r="H3" s="132">
         <v>0</v>
       </c>
-      <c r="I3" s="141">
+      <c r="I3" s="132">
         <v>0</v>
       </c>
-      <c r="J3" s="141"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="139"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="216"/>
+      <c r="G6" s="142"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="K8" s="216"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="152" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="148" t="s">
+      <c r="C9" s="153"/>
+      <c r="D9" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="137"/>
-      <c r="K9" s="216"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="128"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="154" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="157" t="s">
+      <c r="C10" s="149"/>
+      <c r="D10" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="158" t="s">
+      <c r="E10" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="137"/>
-      <c r="K10" s="216"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="128"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:16" ht="19.5">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="152" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="148" t="s">
+      <c r="C11" s="153"/>
+      <c r="D11" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="142"/>
+      <c r="K11" s="195"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A12" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="151"/>
-      <c r="K11" s="216"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="164"/>
-      <c r="K12" s="216"/>
+      <c r="D12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="155"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A13" s="232"/>
-      <c r="B13" s="240" t="s">
+      <c r="A13" s="211"/>
+      <c r="B13" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="227" t="s">
+      <c r="E13" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="230" t="s">
+      <c r="H13" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="231" t="s">
+      <c r="I13" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="227" t="s">
+      <c r="J13" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="265" t="s">
+      <c r="K13" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="234" t="s">
+      <c r="L13" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="235" t="s">
+      <c r="M13" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="279" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" s="279"/>
-      <c r="P13" s="186"/>
+      <c r="N13" s="258" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="258"/>
+      <c r="P13" s="177"/>
     </row>
     <row r="14" spans="1:16" ht="23.25" thickBot="1">
-      <c r="A14" s="187"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="166" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="222">
+      <c r="A14" s="178"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="157" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="201">
         <v>0</v>
       </c>
-      <c r="F14" s="223">
+      <c r="F14" s="202">
         <v>0</v>
       </c>
-      <c r="G14" s="224">
+      <c r="G14" s="203">
         <v>0</v>
       </c>
-      <c r="H14" s="219">
+      <c r="H14" s="198">
         <v>0</v>
       </c>
-      <c r="I14" s="236">
+      <c r="I14" s="215">
         <v>0</v>
       </c>
-      <c r="J14" s="221"/>
+      <c r="J14" s="200"/>
     </row>
     <row r="15" spans="1:16" ht="27" customHeight="1">
-      <c r="D15" s="170"/>
-      <c r="E15" s="237">
+      <c r="D15" s="161"/>
+      <c r="E15" s="216">
         <f>E14+'Invoice-1 '!E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238">
+      <c r="F15" s="217"/>
+      <c r="G15" s="217">
         <f>G14+'Invoice-1 '!G14</f>
         <v>0</v>
       </c>
-      <c r="H15" s="239"/>
-      <c r="I15" s="221">
+      <c r="H15" s="218"/>
+      <c r="I15" s="200">
         <f>I14+'Invoice-1 '!I14</f>
         <v>0</v>
       </c>
-      <c r="J15" s="239"/>
+      <c r="J15" s="218"/>
     </row>
     <row r="16" spans="1:16" ht="18.75">
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
     </row>
     <row r="17" spans="8:10">
-      <c r="J17" s="188"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="8:10">
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="174" t="e">
+      <c r="I18" s="165" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="188"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="8:10">
-      <c r="I19" s="174"/>
+      <c r="I19" s="165"/>
     </row>
     <row r="20" spans="8:10">
-      <c r="I20" s="177"/>
+      <c r="I20" s="168"/>
     </row>
     <row r="21" spans="8:10">
-      <c r="I21" s="175"/>
+      <c r="I21" s="166"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:AJ15" xr:uid="{D9372347-FF81-D647-A62F-B2DA76FB2ABB}"/>
@@ -18301,369 +18358,369 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="137" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="137" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="137" customWidth="1"/>
-    <col min="5" max="5" width="14" style="137" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="140" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="140" customWidth="1"/>
-    <col min="8" max="9" width="16.375" style="140" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="140" customWidth="1"/>
-    <col min="11" max="11" width="36" style="259" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="233" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="233" customWidth="1"/>
-    <col min="14" max="14" width="16" style="233" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="280" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="137" customWidth="1"/>
-    <col min="17" max="17" width="8.25" style="137" customWidth="1"/>
-    <col min="18" max="19" width="2.375" style="137" customWidth="1"/>
-    <col min="20" max="20" width="26.125" style="137" customWidth="1"/>
-    <col min="21" max="21" width="24" style="137" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="137" customWidth="1"/>
-    <col min="23" max="23" width="19.875" style="137" customWidth="1"/>
-    <col min="24" max="24" width="19.375" style="137" customWidth="1"/>
-    <col min="25" max="28" width="16.375" style="137" customWidth="1"/>
-    <col min="29" max="34" width="2.375" style="137" customWidth="1"/>
-    <col min="35" max="35" width="9" style="137"/>
-    <col min="36" max="36" width="19.375" style="137" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="137"/>
+    <col min="1" max="1" width="10.375" style="128" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="128" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="128" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="128" customWidth="1"/>
+    <col min="5" max="5" width="14" style="128" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="131" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="131" customWidth="1"/>
+    <col min="8" max="9" width="16.375" style="131" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="131" customWidth="1"/>
+    <col min="11" max="11" width="36" style="238" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="212" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="212" customWidth="1"/>
+    <col min="14" max="14" width="16" style="212" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="259" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="128" customWidth="1"/>
+    <col min="17" max="17" width="8.25" style="128" customWidth="1"/>
+    <col min="18" max="19" width="2.375" style="128" customWidth="1"/>
+    <col min="20" max="20" width="26.125" style="128" customWidth="1"/>
+    <col min="21" max="21" width="24" style="128" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="128" customWidth="1"/>
+    <col min="23" max="23" width="19.875" style="128" customWidth="1"/>
+    <col min="24" max="24" width="19.375" style="128" customWidth="1"/>
+    <col min="25" max="28" width="16.375" style="128" customWidth="1"/>
+    <col min="29" max="34" width="2.375" style="128" customWidth="1"/>
+    <col min="35" max="35" width="9" style="128"/>
+    <col min="36" max="36" width="19.375" style="128" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A2" s="316"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A3" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="139" t="str" cm="1">
+      <c r="A3" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="130" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="137">
+      <c r="C3" s="128">
         <v>0</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="128">
         <v>0</v>
       </c>
-      <c r="G3" s="141" cm="1">
+      <c r="G3" s="132" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="141">
+      <c r="H3" s="132">
         <v>0</v>
       </c>
-      <c r="I3" s="141">
+      <c r="I3" s="132">
         <v>0</v>
       </c>
-      <c r="J3" s="141"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="139"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="260"/>
+      <c r="G6" s="142"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="239"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="152" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="K8" s="239"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="128"/>
+      <c r="K9" s="239"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="149"/>
+      <c r="D10" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="128"/>
+      <c r="K10" s="239"/>
+    </row>
+    <row r="11" spans="1:24" ht="19.5">
+      <c r="A11" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="K8" s="260"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="161" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="148" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="137"/>
-      <c r="K9" s="260"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="163" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="137"/>
-      <c r="K10" s="260"/>
-    </row>
-    <row r="11" spans="1:24" ht="19.5">
-      <c r="A11" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="137" t="s">
+      <c r="G11" s="142"/>
+      <c r="K11" s="239"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A12" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="151"/>
-      <c r="K11" s="260"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A12" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="164"/>
-      <c r="K12" s="260"/>
+      <c r="D12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="155"/>
+      <c r="K12" s="239"/>
     </row>
     <row r="13" spans="1:24" ht="26.25" thickBot="1">
-      <c r="A13" s="232"/>
-      <c r="B13" s="226" t="s">
+      <c r="A13" s="211"/>
+      <c r="B13" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="227" t="s">
+      <c r="E13" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="230" t="s">
+      <c r="H13" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="231" t="s">
+      <c r="I13" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="227" t="s">
+      <c r="J13" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="225" t="s">
+      <c r="K13" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="234" t="s">
+      <c r="L13" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="235" t="s">
+      <c r="M13" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="279" t="s">
-        <v>150</v>
-      </c>
-      <c r="O13" s="279"/>
-      <c r="P13" s="137" t="e">
+      <c r="N13" s="258" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="258"/>
+      <c r="P13" s="128" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q13" s="178" t="e">
+      <c r="Q13" s="169" t="e">
         <f>P13+'INVOICE(無償サンプル抜き価格)'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="T13" s="213" t="e">
+      <c r="T13" s="192" t="e">
         <f>ROUND(#REF!*1.0432,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="W13" s="140"/>
+      <c r="W13" s="131"/>
     </row>
     <row r="14" spans="1:24" ht="23.25" thickBot="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="166" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="222">
+      <c r="A14" s="156"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="201">
         <v>0</v>
       </c>
-      <c r="F14" s="244">
+      <c r="F14" s="223">
         <v>0</v>
       </c>
-      <c r="G14" s="245">
+      <c r="G14" s="224">
         <v>0</v>
       </c>
-      <c r="H14" s="236">
+      <c r="H14" s="215">
         <v>0</v>
       </c>
-      <c r="I14" s="236">
+      <c r="I14" s="215">
         <v>0</v>
       </c>
-      <c r="J14" s="221"/>
-      <c r="X14" s="179"/>
+      <c r="J14" s="200"/>
+      <c r="X14" s="170"/>
     </row>
     <row r="15" spans="1:24" ht="27" customHeight="1" thickBot="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="241">
+      <c r="A15" s="171"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="220">
         <f>E14+'Invoice-2'!E15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="242"/>
-      <c r="G15" s="243">
+      <c r="F15" s="221"/>
+      <c r="G15" s="222">
         <f>'Invoice-1 '!G14+'Invoice-2'!G14+'Invoice-3'!G14</f>
         <v>0</v>
       </c>
-      <c r="H15" s="239"/>
-      <c r="I15" s="221">
+      <c r="H15" s="218"/>
+      <c r="I15" s="200">
         <f>I14+'Invoice-2'!I15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="239"/>
+      <c r="J15" s="218"/>
     </row>
     <row r="16" spans="1:24" ht="18.75">
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
     </row>
     <row r="17" spans="7:12" ht="23.25">
-      <c r="G17" s="183"/>
-      <c r="I17" s="184"/>
-      <c r="L17" s="266"/>
+      <c r="G17" s="174"/>
+      <c r="I17" s="175"/>
+      <c r="L17" s="245"/>
     </row>
     <row r="18" spans="7:12">
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="184" t="e">
+      <c r="I18" s="175" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L18" s="266" t="e">
+      <c r="L18" s="245" t="e">
         <f>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="7:12">
-      <c r="H19" s="140" t="s">
+      <c r="H19" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="184" t="e">
+      <c r="I19" s="175" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!I20</f>
         <v>#REF!</v>
       </c>
-      <c r="L19" s="266" t="e">
+      <c r="L19" s="245" t="e">
         <f>SUM(#REF!)+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="7:12">
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="184" t="e">
+      <c r="I20" s="175" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!I21</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="7:12">
-      <c r="I21" s="185" t="e">
+      <c r="I21" s="176" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="7:12">
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="177" t="e">
+      <c r="I22" s="168" t="e">
         <f>SUM(#REF!)+'Invoice-4 (TESTER)'!I22</f>
         <v>#REF!</v>
       </c>
@@ -18696,353 +18753,353 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
-    <col min="2" max="2" width="49.75" style="137" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="137" customWidth="1"/>
-    <col min="4" max="4" width="39" style="137" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="137" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="140" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="140" customWidth="1"/>
-    <col min="8" max="10" width="16.375" style="140" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="264" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="233" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="267" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="137" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="278" customWidth="1"/>
-    <col min="16" max="19" width="2.375" style="137" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="137" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="137" customWidth="1"/>
-    <col min="22" max="22" width="19.375" style="137" customWidth="1"/>
-    <col min="23" max="27" width="16.375" style="137" customWidth="1"/>
-    <col min="28" max="33" width="2.375" style="137" customWidth="1"/>
-    <col min="34" max="34" width="9" style="137"/>
-    <col min="35" max="35" width="19.375" style="137" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="137"/>
+    <col min="1" max="1" width="10.375" style="128" customWidth="1"/>
+    <col min="2" max="2" width="49.75" style="128" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="128" customWidth="1"/>
+    <col min="4" max="4" width="39" style="128" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="128" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="131" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="131" customWidth="1"/>
+    <col min="8" max="10" width="16.375" style="131" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="243" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="212" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="246" customWidth="1"/>
+    <col min="14" max="14" width="22.25" style="128" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="257" customWidth="1"/>
+    <col min="16" max="19" width="2.375" style="128" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="128" customWidth="1"/>
+    <col min="21" max="21" width="19.875" style="128" customWidth="1"/>
+    <col min="22" max="22" width="19.375" style="128" customWidth="1"/>
+    <col min="23" max="27" width="16.375" style="128" customWidth="1"/>
+    <col min="28" max="33" width="2.375" style="128" customWidth="1"/>
+    <col min="34" max="34" width="9" style="128"/>
+    <col min="35" max="35" width="19.375" style="128" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A2" s="316"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A3" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="139" t="str" cm="1">
+      <c r="A3" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="130" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="137">
+      <c r="C3" s="128">
         <v>0</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="128">
         <v>0</v>
       </c>
-      <c r="G3" s="141" cm="1">
+      <c r="G3" s="132" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="141">
+      <c r="H3" s="132">
         <v>0</v>
       </c>
-      <c r="I3" s="141">
+      <c r="I3" s="132">
         <v>0</v>
       </c>
-      <c r="J3" s="141"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="139"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="216"/>
+      <c r="G6" s="142"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="152" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="K8" s="195"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="128"/>
+      <c r="K9" s="195"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="149"/>
+      <c r="D10" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="128"/>
+      <c r="K10" s="195"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5">
+      <c r="A11" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="K8" s="216"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="161" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="148" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="137"/>
-      <c r="K9" s="216"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="163" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="137"/>
-      <c r="K10" s="216"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.5">
-      <c r="A11" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="137" t="s">
+      <c r="G11" s="142"/>
+      <c r="K11" s="195"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A12" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="151"/>
-      <c r="K11" s="216"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A12" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="164"/>
-      <c r="K12" s="216"/>
+      <c r="D12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="155"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:14" ht="26.25" thickBot="1">
-      <c r="A13" s="232"/>
-      <c r="B13" s="226" t="s">
+      <c r="A13" s="211"/>
+      <c r="B13" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="227" t="s">
+      <c r="E13" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="230" t="s">
+      <c r="H13" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="250" t="s">
+      <c r="I13" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="227" t="s">
+      <c r="J13" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="265" t="s">
+      <c r="K13" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="225" t="s">
+      <c r="L13" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="268" t="s">
+      <c r="M13" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="282" t="s">
-        <v>149</v>
+      <c r="N13" s="261" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25" thickBot="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="166" t="s">
+      <c r="A14" s="156"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="217">
+      <c r="E14" s="196">
         <v>0</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <v>0</v>
       </c>
-      <c r="G14" s="218">
+      <c r="G14" s="197">
         <v>0</v>
       </c>
-      <c r="H14" s="219">
+      <c r="H14" s="198">
         <v>0</v>
       </c>
-      <c r="I14" s="236">
+      <c r="I14" s="215">
         <v>0</v>
       </c>
-      <c r="J14" s="221"/>
+      <c r="J14" s="200"/>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1">
-      <c r="D15" s="170" t="s">
+      <c r="D15" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="247">
+      <c r="E15" s="226">
         <f>'Invoice-3'!E15+'Invoice-4 (TESTER)'!E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248">
+      <c r="F15" s="227"/>
+      <c r="G15" s="227">
         <f>'Invoice-3'!G15+'Invoice-4 (TESTER)'!G14</f>
         <v>0</v>
       </c>
-      <c r="H15" s="249"/>
-      <c r="I15" s="246">
+      <c r="H15" s="228"/>
+      <c r="I15" s="225">
         <f>'Invoice-3'!I15+'Invoice-4 (TESTER)'!I14</f>
         <v>0</v>
       </c>
-      <c r="J15" s="239"/>
+      <c r="J15" s="218"/>
     </row>
     <row r="16" spans="1:14" ht="18.75">
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="137">
+      <c r="E17" s="128">
         <v>19721</v>
       </c>
-      <c r="G17" s="140" t="e">
+      <c r="G17" s="131" t="e">
         <f>G14-#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="174" t="e">
+      <c r="I17" s="165" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="137">
+      <c r="E18" s="128">
         <f>E17-E15</f>
         <v>19721</v>
       </c>
-      <c r="G18" s="140" t="e">
+      <c r="G18" s="131" t="e">
         <f>G17+'Invoice-1 '!G14</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="175" t="e">
+      <c r="I18" s="166" t="e">
         <f>'Invoice-1 '!I14+'Invoice-4 (TESTER)'!I17</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="176" t="e">
+      <c r="I20" s="167" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="H21" s="140" t="s">
+      <c r="H21" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="175" t="e">
+      <c r="I21" s="166" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="177" t="e">
+      <c r="I22" s="168" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="I23" s="177" t="e">
+      <c r="I23" s="168" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -19075,364 +19132,364 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="137" customWidth="1"/>
-    <col min="2" max="2" width="49.75" style="137" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="137" customWidth="1"/>
-    <col min="4" max="4" width="39" style="137" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="137" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="140" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="140" customWidth="1"/>
-    <col min="8" max="10" width="16.375" style="140" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="259" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="269" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="269" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="269" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="283" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="137" customWidth="1"/>
-    <col min="17" max="21" width="2.375" style="137" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="137" customWidth="1"/>
-    <col min="23" max="23" width="19.875" style="137" customWidth="1"/>
-    <col min="24" max="24" width="19.375" style="137" customWidth="1"/>
-    <col min="25" max="29" width="16.375" style="137" customWidth="1"/>
-    <col min="30" max="35" width="2.375" style="137" customWidth="1"/>
-    <col min="36" max="36" width="9" style="137"/>
-    <col min="37" max="37" width="19.375" style="137" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="137"/>
+    <col min="1" max="1" width="10.375" style="128" customWidth="1"/>
+    <col min="2" max="2" width="49.75" style="128" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="128" customWidth="1"/>
+    <col min="4" max="4" width="39" style="128" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="128" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="131" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="131" customWidth="1"/>
+    <col min="8" max="10" width="16.375" style="131" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="238" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="248" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="248" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="248" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="262" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="128" customWidth="1"/>
+    <col min="17" max="21" width="2.375" style="128" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="128" customWidth="1"/>
+    <col min="23" max="23" width="19.875" style="128" customWidth="1"/>
+    <col min="24" max="24" width="19.375" style="128" customWidth="1"/>
+    <col min="25" max="29" width="16.375" style="128" customWidth="1"/>
+    <col min="30" max="35" width="2.375" style="128" customWidth="1"/>
+    <col min="36" max="36" width="9" style="128"/>
+    <col min="37" max="37" width="19.375" style="128" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A2" s="316"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A3" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="139" t="str" cm="1">
+      <c r="A3" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="130" t="str" cm="1">
         <f t="array" ref="B3:D3">'INVOICE(無償サンプル抜き価格)'!H6:J6</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C3" s="137">
+      <c r="C3" s="128">
         <v>0</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="128">
         <v>0</v>
       </c>
-      <c r="G3" s="141" cm="1">
+      <c r="G3" s="132" cm="1">
         <f t="array" ref="G3:I3">'INVOICE(無償サンプル抜き価格)'!H4:J4</f>
         <v>45842</v>
       </c>
-      <c r="H3" s="141">
+      <c r="H3" s="132">
         <v>0</v>
       </c>
-      <c r="I3" s="141">
+      <c r="I3" s="132">
         <v>0</v>
       </c>
-      <c r="J3" s="141"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="139"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="260"/>
+      <c r="G6" s="142"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="239"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="152" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="K8" s="239"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="128"/>
+      <c r="K9" s="239"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="149"/>
+      <c r="D10" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="128"/>
+      <c r="K10" s="239"/>
+    </row>
+    <row r="11" spans="1:15" ht="19.5">
+      <c r="A11" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="K8" s="260"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="161" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="148" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="137"/>
-      <c r="K9" s="260"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="163" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="137"/>
-      <c r="K10" s="260"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5">
-      <c r="A11" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="137" t="s">
+      <c r="G11" s="142"/>
+      <c r="K11" s="239"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A12" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="151"/>
-      <c r="K11" s="260"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A12" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="164"/>
-      <c r="K12" s="260"/>
+      <c r="D12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="155"/>
+      <c r="K12" s="239"/>
     </row>
     <row r="13" spans="1:15" ht="21.75" thickBot="1">
-      <c r="A13" s="232"/>
-      <c r="B13" s="226" t="s">
+      <c r="A13" s="211"/>
+      <c r="B13" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="227" t="s">
+      <c r="E13" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="230" t="s">
+      <c r="H13" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="231" t="s">
+      <c r="I13" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="227" t="s">
+      <c r="J13" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="225" t="s">
+      <c r="K13" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="268" t="s">
+      <c r="L13" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="268" t="s">
+      <c r="M13" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="281" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="281"/>
+      <c r="N13" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="260"/>
     </row>
     <row r="14" spans="1:15" ht="23.25" thickBot="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="166" t="s">
+      <c r="A14" s="156"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="167">
+      <c r="E14" s="158">
         <v>0</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <v>0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <v>0</v>
       </c>
-      <c r="H14" s="168">
+      <c r="H14" s="159">
         <v>0</v>
       </c>
-      <c r="I14" s="169">
+      <c r="I14" s="160">
         <v>0</v>
       </c>
-      <c r="J14" s="90"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="1:15" ht="33" customHeight="1" thickBot="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182" t="s">
+      <c r="A15" s="171"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="210">
+      <c r="E15" s="189">
         <v>0</v>
       </c>
-      <c r="F15" s="211">
+      <c r="F15" s="190">
         <v>0</v>
       </c>
-      <c r="G15" s="212">
+      <c r="G15" s="191">
         <v>0</v>
       </c>
-      <c r="H15" s="209">
+      <c r="H15" s="188">
         <v>0</v>
       </c>
-      <c r="I15" s="171">
+      <c r="I15" s="162">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75">
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="137">
+      <c r="E17" s="128">
         <v>19721</v>
       </c>
-      <c r="G17" s="140" t="e">
+      <c r="G17" s="131" t="e">
         <f>G14-#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="174" t="e">
+      <c r="I17" s="165" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="137">
+      <c r="E18" s="128">
         <f>E17-E15</f>
         <v>19721</v>
       </c>
-      <c r="G18" s="140" t="e">
+      <c r="G18" s="131" t="e">
         <f>G17+'Invoice-1 '!G14</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="175" t="e">
+      <c r="I18" s="166" t="e">
         <f>'Invoice-1 '!I14+'Invoice-5 (TESTER) '!I17</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="5:9">
-      <c r="G19" s="140">
+      <c r="G19" s="131">
         <f>G14+'Invoice-4 (TESTER)'!G14</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="176" t="e">
+      <c r="I20" s="167" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="H21" s="140" t="s">
+      <c r="H21" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="175" t="e">
+      <c r="I21" s="166" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="177" t="e">
+      <c r="I22" s="168" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="I23" s="177" t="e">
+      <c r="I23" s="168" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -19464,374 +19521,374 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="44.625" style="258" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9" style="33" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="12" style="33" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="33" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="53" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="53" customWidth="1"/>
-    <col min="18" max="18" width="20" style="53" customWidth="1"/>
-    <col min="19" max="19" width="30.75" style="53" customWidth="1"/>
-    <col min="20" max="20" width="15.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.75" style="272" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="6.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="44.625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="12" style="28" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="28" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="48" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="48" customWidth="1"/>
+    <col min="18" max="18" width="20" style="48" customWidth="1"/>
+    <col min="19" max="19" width="30.75" style="48" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.75" style="251" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="65" t="str">
+      <c r="B5" s="60" t="str">
         <f>'Invoice-1 '!B3</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="41"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:21" ht="12" thickBot="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="50" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50" t="s">
+      <c r="J11" s="45"/>
+      <c r="K11" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="68"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="257" t="s">
+      <c r="G12" s="236" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118" t="s">
+      <c r="J12" s="109"/>
+      <c r="K12" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118" t="s">
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="119"/>
-      <c r="P12" s="97" t="s">
+      <c r="O12" s="110"/>
+      <c r="P12" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="95" t="s">
+      <c r="Q12" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="95" t="s">
+      <c r="R12" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="S12" s="96" t="s">
+      <c r="S12" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="96" t="s">
+      <c r="T12" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="89" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="81">
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="76">
         <v>0</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="76">
         <v>0</v>
       </c>
-      <c r="E13" s="318" t="s">
+      <c r="E13" s="310" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="319"/>
-      <c r="G13" s="320"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="126">
+      <c r="F13" s="311"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="117">
         <v>0</v>
       </c>
-      <c r="J13" s="127">
+      <c r="J13" s="118">
         <v>0</v>
       </c>
-      <c r="K13" s="127">
+      <c r="K13" s="118">
         <v>0</v>
       </c>
-      <c r="L13" s="128">
+      <c r="L13" s="119">
         <v>0</v>
       </c>
-      <c r="M13" s="129">
+      <c r="M13" s="120">
         <v>0</v>
       </c>
-      <c r="N13" s="130">
+      <c r="N13" s="121">
         <v>0</v>
       </c>
-      <c r="O13" s="131">
+      <c r="O13" s="122">
         <v>0</v>
       </c>
-      <c r="Q13" s="132" t="e">
+      <c r="Q13" s="123" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R13" s="55"/>
+      <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="D14" s="133" t="e">
+      <c r="D14" s="124" t="e">
         <f>'INVOICE(無償サンプル抜き価格)'!H20+'INVOICE(無償サンプル抜き価格)'!#REF!+'Invoice-4 (TESTER)'!E14</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="134"/>
+      <c r="Q14" s="125"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="D15" s="58"/>
-      <c r="M15" s="59"/>
-      <c r="Q15" s="134"/>
+      <c r="D15" s="53"/>
+      <c r="M15" s="54"/>
+      <c r="Q15" s="125"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="N16" s="60"/>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="13:16">
-      <c r="M17" s="104"/>
-      <c r="N17" s="60"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="55"/>
     </row>
     <row r="18" spans="13:16">
-      <c r="M18" s="104"/>
-      <c r="N18" s="60"/>
-      <c r="P18" s="270"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="55"/>
+      <c r="P18" s="249"/>
     </row>
     <row r="19" spans="13:16" ht="26.25" customHeight="1">
-      <c r="M19" s="135"/>
-      <c r="N19" s="60"/>
-      <c r="P19" s="270"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="55"/>
+      <c r="P19" s="249"/>
     </row>
     <row r="20" spans="13:16">
-      <c r="N20" s="62"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="13:16">
-      <c r="M21" s="59"/>
+      <c r="M21" s="54"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:W14" xr:uid="{ED31AEE0-0C00-4FB4-BB30-FE610C112066}"/>
@@ -19849,534 +19906,534 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225C2EAC-FF4E-0647-B497-F14FC8D1154C}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="33" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9" style="33"/>
-    <col min="10" max="10" width="9.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="33" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="33" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="53" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="53" customWidth="1"/>
-    <col min="18" max="18" width="11.375" style="53" customWidth="1"/>
-    <col min="19" max="19" width="30.625" style="271" customWidth="1"/>
-    <col min="20" max="20" width="16.25" style="272" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" style="272" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="6.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9" style="28"/>
+    <col min="10" max="10" width="9.375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="28" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="28" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="48" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="48" customWidth="1"/>
+    <col min="18" max="18" width="11.375" style="48" customWidth="1"/>
+    <col min="19" max="19" width="30.625" style="250" customWidth="1"/>
+    <col min="20" max="20" width="16.25" style="251" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" style="251" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="65" t="str">
+      <c r="B5" s="60" t="str">
         <f>'Invoice-1 '!B3</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="41"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:21" ht="12" thickBot="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="50" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50" t="s">
+      <c r="J11" s="45"/>
+      <c r="K11" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="68"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72" t="s">
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="73"/>
-      <c r="P12" s="273" t="s">
+      <c r="O12" s="68"/>
+      <c r="P12" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="274" t="s">
+      <c r="Q12" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="274" t="s">
+      <c r="R12" s="253" t="s">
         <v>70</v>
       </c>
-      <c r="S12" s="96" t="s">
+      <c r="S12" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="96" t="s">
+      <c r="T12" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="89" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81" t="e">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="81" t="e">
+      <c r="D13" s="76" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="318" t="s">
+      <c r="E13" s="310" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="319"/>
-      <c r="G13" s="320"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83">
+      <c r="F13" s="311"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78">
         <v>0</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="79">
         <v>0</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="79">
         <v>0</v>
       </c>
-      <c r="L13" s="120">
+      <c r="L13" s="111">
         <v>0</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="80">
         <v>0</v>
       </c>
-      <c r="N13" s="86">
+      <c r="N13" s="81">
         <v>0</v>
       </c>
-      <c r="O13" s="87">
+      <c r="O13" s="82">
         <v>0</v>
       </c>
-      <c r="Q13" s="55" t="e">
+      <c r="Q13" s="50" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R13" s="55"/>
+      <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:21" s="12" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="74" t="e">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="69" t="e">
         <f>C13+'PL1'!C13</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="74" t="e">
+      <c r="D14" s="69" t="e">
         <f>D13+'PL1'!D13</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="75">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="70">
         <f>J13+'PL1'!J13</f>
         <v>0</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="75">
+      <c r="K14" s="24"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="70">
         <f>M13+'PL1'!M13</f>
         <v>0</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="76">
+      <c r="N14" s="24"/>
+      <c r="O14" s="71">
         <f>O13+'PL1'!O13</f>
         <v>0</v>
       </c>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57" t="e">
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52" t="e">
         <f>Q13+'PL1'!Q13</f>
         <v>#REF!</v>
       </c>
-      <c r="R14" s="56"/>
-      <c r="S14" s="276"/>
-      <c r="T14" s="277"/>
-      <c r="U14" s="277"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="255"/>
+      <c r="T14" s="256"/>
+      <c r="U14" s="256"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="D15" s="58"/>
-      <c r="M15" s="77"/>
-      <c r="Q15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="M15" s="72"/>
+      <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="N16" s="60"/>
-      <c r="Q16" s="52"/>
+      <c r="N16" s="55"/>
+      <c r="Q16" s="47"/>
     </row>
     <row r="17" spans="12:17">
-      <c r="L17" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="104" t="e">
+      <c r="L17" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="97" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N17" s="60" t="e">
+      <c r="N17" s="55" t="e">
         <f>SUM('Invoice-2'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="52"/>
+      <c r="Q17" s="47"/>
     </row>
     <row r="18" spans="12:17">
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="104" t="e">
+      <c r="M18" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N18" s="62" t="e">
+      <c r="N18" s="57" t="e">
         <f>SUM('Invoice-2'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P18" s="270"/>
-      <c r="Q18" s="52"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="47"/>
     </row>
     <row r="19" spans="12:17">
-      <c r="L19" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="105" t="e">
+      <c r="L19" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="98" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N19" s="60" t="e">
+      <c r="N19" s="55" t="e">
         <f>SUM('Invoice-2'!#REF!)+O19</f>
         <v>#REF!</v>
       </c>
-      <c r="O19" s="33" t="e">
+      <c r="O19" s="28" t="e">
         <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="52"/>
+      <c r="P19" s="249"/>
+      <c r="Q19" s="47"/>
     </row>
     <row r="20" spans="12:17">
-      <c r="L20" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="104" t="e">
+      <c r="L20" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N20" s="62" t="e">
+      <c r="N20" s="57" t="e">
         <f>SUM('Invoice-2'!#REF!)+O20</f>
         <v>#REF!</v>
       </c>
-      <c r="O20" s="33" t="e">
+      <c r="O20" s="28" t="e">
         <f>'Invoice-5 (TESTER) '!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="12:17">
-      <c r="L21" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M21" s="104" t="e">
+      <c r="L21" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N21" s="33" t="e">
+      <c r="N21" s="28" t="e">
         <f>'Invoice-2'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="12:17">
-      <c r="L22" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="104" t="e">
+      <c r="L22" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="33" t="e">
+      <c r="N22" s="28" t="e">
         <f>SUM('Invoice-2'!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="12:17">
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="104" t="e">
+      <c r="M23" s="97" t="e">
         <f>SUM(#REF!)+'PL1'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N23" s="33" t="e">
+      <c r="N23" s="28" t="e">
         <f>SUM('Invoice-2'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="O23" s="33" t="e">
+      <c r="O23" s="28" t="e">
         <f>SUM('Invoice-4 (TESTER)'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q23" s="53" t="e">
+      <c r="Q23" s="48" t="e">
         <f>N23+O23</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="12:17">
-      <c r="L24" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="M24" s="104" t="e">
+      <c r="L24" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N24" s="33" t="e">
+      <c r="N24" s="28" t="e">
         <f>SUM('Invoice-2'!#REF!)+O24</f>
         <v>#REF!</v>
       </c>
-      <c r="O24" s="33" t="e">
+      <c r="O24" s="28" t="e">
         <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="12:17">
-      <c r="L25" s="33" t="s">
-        <v>123</v>
+      <c r="L25" s="28" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="12:17">
-      <c r="M27" s="208" t="e">
+      <c r="M27" s="187" t="e">
         <f>#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
@@ -20403,526 +20460,526 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="35.25" style="258" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9" style="33" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="17" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="33" customWidth="1"/>
-    <col min="15" max="16" width="13.375" style="33" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="11.375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="38.625" style="271" customWidth="1"/>
-    <col min="20" max="20" width="14.75" style="272" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.25" style="272" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="6.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="35.25" style="237" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="17" style="28" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="28" customWidth="1"/>
+    <col min="15" max="16" width="13.375" style="28" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="28" customWidth="1"/>
+    <col min="18" max="18" width="11.375" style="28" customWidth="1"/>
+    <col min="19" max="19" width="38.625" style="250" customWidth="1"/>
+    <col min="20" max="20" width="14.75" style="251" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.25" style="251" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="65" t="str">
+      <c r="B5" s="60" t="str">
         <f>'Invoice-1 '!B3</f>
         <v>250701-MOS</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="41"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="Q9" s="54"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:21" ht="12" thickBot="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="321" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="313" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="323"/>
-      <c r="K11" s="321" t="s">
+      <c r="J11" s="315"/>
+      <c r="K11" s="313" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="322"/>
-      <c r="M11" s="323"/>
-      <c r="N11" s="321" t="s">
+      <c r="L11" s="314"/>
+      <c r="M11" s="315"/>
+      <c r="N11" s="313" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="324"/>
+      <c r="O11" s="316"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="257" t="s">
+      <c r="G12" s="236" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118" t="s">
+      <c r="J12" s="109"/>
+      <c r="K12" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118" t="s">
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="119"/>
-      <c r="P12" s="273" t="s">
+      <c r="O12" s="110"/>
+      <c r="P12" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="274" t="s">
+      <c r="Q12" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="274" t="s">
+      <c r="R12" s="253" t="s">
         <v>70</v>
       </c>
-      <c r="S12" s="96" t="s">
+      <c r="S12" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="96" t="s">
+      <c r="T12" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="89" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="12" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108" t="e">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101" t="e">
         <f>#REF!+'PL2'!C14</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="109" t="e">
+      <c r="D13" s="102" t="e">
         <f>#REF!+'PL2'!D14</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="325" t="s">
+      <c r="E13" s="317" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="325"/>
-      <c r="G13" s="325"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107">
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100">
         <v>0</v>
       </c>
-      <c r="J13" s="110">
+      <c r="J13" s="103">
         <v>0</v>
       </c>
-      <c r="K13" s="107">
+      <c r="K13" s="100">
         <v>0</v>
       </c>
-      <c r="L13" s="111">
+      <c r="L13" s="104">
         <v>0</v>
       </c>
-      <c r="M13" s="110">
+      <c r="M13" s="103">
         <v>0</v>
       </c>
-      <c r="N13" s="107">
+      <c r="N13" s="100">
         <v>0</v>
       </c>
-      <c r="O13" s="214">
+      <c r="O13" s="193">
         <v>0</v>
       </c>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57" t="e">
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52" t="e">
         <f>'PL2'!Q14+'PL3'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R13" s="56"/>
-      <c r="S13" s="276"/>
-      <c r="T13" s="277"/>
-      <c r="U13" s="277"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="255"/>
+      <c r="T13" s="256"/>
+      <c r="U13" s="256"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="D14" s="58"/>
-      <c r="M14" s="59">
+      <c r="D14" s="53"/>
+      <c r="M14" s="54">
         <v>1156.7429999999999</v>
       </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="S14" s="275"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="S14" s="254"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="M15" s="206">
+      <c r="M15" s="185">
         <f>M14-M13</f>
         <v>1156.7429999999999</v>
       </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="33">
+      <c r="N15" s="55"/>
+      <c r="O15" s="28">
         <v>1403.8230000000001</v>
       </c>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="121"/>
-      <c r="S15" s="275"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="112"/>
+      <c r="S15" s="254"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="N16" s="60"/>
-      <c r="O16" s="77">
+      <c r="N16" s="55"/>
+      <c r="O16" s="72">
         <f>O13-O15</f>
         <v>-1403.8230000000001</v>
       </c>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="S16" s="275"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="S16" s="254"/>
     </row>
     <row r="17" spans="11:19">
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="104" t="e">
+      <c r="L17" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="33" t="e">
+      <c r="M17" s="28" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="54"/>
-      <c r="S17" s="275"/>
+      <c r="N17" s="55"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="49"/>
+      <c r="S17" s="254"/>
     </row>
     <row r="18" spans="11:19">
-      <c r="K18" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="104" t="e">
+      <c r="K18" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M18" s="104" t="e">
+      <c r="M18" s="97" t="e">
         <f>SUM('Invoice-3'!#REF!)+N18</f>
         <v>#REF!</v>
       </c>
-      <c r="N18" s="60" t="e">
+      <c r="N18" s="55" t="e">
         <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P18" s="61"/>
+      <c r="P18" s="56"/>
     </row>
     <row r="19" spans="11:19">
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="104" t="e">
+      <c r="L19" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M19" s="104" t="e">
+      <c r="M19" s="97" t="e">
         <f>SUM('Invoice-3'!#REF!)+N19</f>
         <v>#REF!</v>
       </c>
-      <c r="N19" s="62" t="e">
+      <c r="N19" s="57" t="e">
         <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P19" s="123"/>
+      <c r="P19" s="114"/>
     </row>
     <row r="20" spans="11:19">
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="104" t="e">
+      <c r="L20" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M20" s="104" t="e">
+      <c r="M20" s="97" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N20" s="104"/>
+      <c r="N20" s="97"/>
     </row>
     <row r="21" spans="11:19">
-      <c r="K21" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="104" t="e">
+      <c r="K21" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M21" s="104" t="e">
+      <c r="M21" s="97" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q21" s="54"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="11:19">
-      <c r="K22" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="104" t="e">
+      <c r="K22" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="104" t="e">
+      <c r="M22" s="97" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="11:19">
-      <c r="K23" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="104" t="e">
+      <c r="K23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M23" s="33" t="e">
+      <c r="M23" s="28" t="e">
         <f>'Invoice-3'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="11:19">
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="11:19">
+      <c r="K25" s="28" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="11:19">
-      <c r="K25" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="104" t="e">
+      <c r="L25" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M25" s="207" t="e">
+      <c r="M25" s="186" t="e">
         <f>SUM('Invoice-3'!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="11:19">
-      <c r="K26" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="104" t="e">
+      <c r="K26" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="97" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M26" s="33" t="e">
+      <c r="M26" s="28" t="e">
         <f>SUM('Invoice-3'!#REF!)+N26</f>
         <v>#REF!</v>
       </c>
-      <c r="N26" s="33" t="e">
+      <c r="N26" s="28" t="e">
         <f>SUM('Invoice-5 (TESTER) '!#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="11:19">
-      <c r="L27" s="104" t="e">
+      <c r="L27" s="97" t="e">
         <f>SUM(L17:L26)</f>
         <v>#REF!</v>
       </c>
-      <c r="M27" s="33" t="e">
+      <c r="M27" s="28" t="e">
         <f>SUM(M17:M26)</f>
         <v>#REF!</v>
       </c>
